--- a/news_data/2017_06.xlsx
+++ b/news_data/2017_06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,60 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>위메프, 제주도 관광지 최대 67% 할인 서비스 선보여</t>
+  </si>
+  <si>
+    <t>제주도 생태관광, 세계자연유산 제주속살을 만나다</t>
+  </si>
+  <si>
+    <t>제주도 관광정책은 ‘짐작치기’ 통계·자료의 산물?</t>
+  </si>
+  <si>
+    <t>사드 쇼크…4~5월 제주도 관광손실 2천억 넘었다</t>
+  </si>
+  <si>
+    <t>제주도 4~5월 외국인 관광수입 2870억 줄었다</t>
+  </si>
+  <si>
+    <t>제주도 관광수입 4~5월 2,147억원 감소</t>
+  </si>
+  <si>
+    <t>제주도 세종사무소 공직자들, 중앙부처 제주관광 홍보</t>
+  </si>
+  <si>
+    <t>제주도, '아태 관광지 지속가능 관리 워크숍' 개최</t>
+  </si>
+  <si>
+    <t>제주도 관광·감귤 관련 규제 완화...야영장업 강화</t>
+  </si>
+  <si>
+    <t>[분석Q] '효리네민박' 과도한 제주도 관광지 홍보 '제주 민박집 에이전트인가...</t>
+  </si>
+  <si>
+    <t>신관홍 제주도의장 "오라관광단지 개발 자본검증 먼저"</t>
+  </si>
+  <si>
+    <t>"제주도의회, 오라관광단지 통과하면 낙선운동"</t>
+  </si>
+  <si>
+    <t>제주도관광협회장배 아마추어 친선골프대회 개최</t>
+  </si>
+  <si>
+    <t>[일일 금융동향]지역 경기별 온도차 나타나 · 제주도 관광수입 감소 · 주택...</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 사업 자본검증 우선 시행</t>
+  </si>
+  <si>
+    <t>제주도 올해 누적 관광객, 2013년 이후 첫 감소</t>
+  </si>
+  <si>
+    <t>'갑자기 히어로즈' 러블리즈와 제주도 새 관광코스 개발 '먹방+체험'</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 이달의 베스트관광인으로 '제주토박이' 김은례 과장 선정</t>
+  </si>
+  <si>
     <t>제주도 관광객, 2013년 이후 첫 감소 '중국 금한령 여파'</t>
   </si>
   <si>
@@ -52,34 +106,88 @@
     <t>제주도관광협회 제14차 제주관광포럼 개최</t>
   </si>
   <si>
-    <t>제주도 관광객, 2013년 이후 첫 감소 '중국 금한령 여파' 검색 2022-10-04 화요일 홈 경제 경제일반 산업 자동차/항공 조선/철강 화학/에너지 제약/바이오 중기 금융 증권 IT 전자 게임 유통 부동산 칼럼 정치 사회 연예 최신 영화 연예 스포츠 스포츠종합 축구 야구 농구 골프 여행 문화 기업PR 제주도 관광객, 2013년 이후 첫 감소 '중국 금한령 여파' 2017-06-10 15:35:00 | 온라인뉴스팀 기자 | office@mediapen.com 페이스북 트위터 카카오톡 프린트 가 + 가 - [미디어펜=온라인뉴스팀]제주도 관광객 수가 중국 정부의 금한령 여파로 지난 2013년 이후 처음으로 감소세를 보인 것으로 알려졌다.10일 제주도관광협회 소식을 인용한 연합뉴스 보도에 따르면 지난 8일까지 올해 제주를 찾은 누적관광객 수는 639만8648명으로 작년 같은 기간 651만2577명에 비해 1.7％(11만3929명) 감소했다.특히 외국인 관광객 수는 작년 동기간 136만5278명과 비교해 54.2%에 불과한 74만144명인 것으로 확인됐다.중국을 오가는 항공편이 80% 이상인 제주공항 국제선의 경우, 사드(THADD·고고도 미사일 방어체계) 배치에 따른 중국 정부의 금한령 조치 시행 이후 지난 4~5월 2달간 (전년 동기 3319편과 비교해) 1104편만 운항되어 작년에 비해 1/3로 줄었다.지난 2013년 제주도를 찾는 연간 관광객이 1000만 명을 돌파한 바 있다. 그 이후로 연간 누적관광객이 감소세를 보인 것은 올해가 처음이다. ▲ 제주도 관광객, 2013년 이후 첫 감소 '중국 금한령 여파'./사진=연합뉴스 [미디어펜=온라인뉴스팀] ▶다른기사보기 &lt;저작권자 © 미디어펜 무단전재 및 재배포금지&gt; 회사소개 연혁 광고·제휴문의 청소년보호정책 이메일무단수집거부 인터넷신문 ( 윤리강령 | 심의규정 ) 서울특별시 종로구 새문안로3길 30 세종로대우빌딩 복합동 508호 전화번호 : 02)6241-7700 팩스 : 02)6241-7708 정기간행물ㆍ등록번호 : 서울 아 00574 등록일.발행일 2008.5.8 발행인 : 이의춘 편집인·편집국장 : 김태균 청소년보호책임자:김사성 Copyright © 2013 미디어펜. All rights reserved.</t>
-  </si>
-  <si>
-    <t>제주도 관광객들 입맛 사로잡은 제주도 해물탕 별미 &lt; 보도자료 &lt; 기사본문 - 디트NEWS24 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 칼럼 디트TV 충남 naver-tv youtube facebook 로그인 검색버튼 기사검색 검색 본문영역 현재위치 홈 보도자료 제주도 관광객들 입맛 사로잡은 제주도 해물탕 별미 이전 기사보기 다음 기사보기 기자명 박길수 기자 입력 2017.06.04 09:50 댓글 0 SNS 기사보내기 기사저장 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 우리나라를 대표하는 국제적 관광지 중 한 곳을 꼽으라면 단연 제주도를 말할 수 있다. 청정 자연과 아름다운 경관을 자랑하는 곳, 수많은 기암괴석이 절경을 이루는 곳, 웅장한 한라산과 푸른 바다가 매력적인 곳으로 우리나라만이 아니라 전 세계 관광객들의 발걸음도 불러 모으고 있다.전 세계적으로 인기가 높은 관광지인 만큼 공항 근처에 맛집이 많이 있는데, 세계 여러 나라 사람들의 입맛을 충족시키기 위한 여러 요리들이 있어 관광 만족도를 더욱 높인다.그 중에서도 섬 지역 특유의 해물요리가 높은 인기를 자랑한다. 실제로 제주도만의 특별한 해산물을 맛볼 수 있어 국내외에서 호평을 얻고 있다.제주도 본연의 해산물 별미를 맛보고 싶다면 제주시 외도1동 제주공항근처맛집인 ‘큰물 살아있는 해물탕’을 방문해보자. 관광지 맛집으로 입소문이 난 만큼 푸짐한 양과 뛰어난 맛, 높은 신선도를 자랑한다. 이호해변맛집인 업체의 주 메뉴는 가게 이름과 같은 이름을 가진 큰물해물탕으로 국내산 해산물들이 가득 들어간다. 큼지막한 살아있는 문어와 전복, 뿔소라, 대합, 키조개 등 갖가지 해산물이 푸짐하게 담겨 있어 엄청난 비주얼을 자랑하는 것이 포인트다.맛은 당일 공수한 재료만을 취급하는 만큼 뛰어난 맛을 자랑한다. 업체 대표가 살아있는 문어를 눈 앞에서 넣어 익힌 후 먹기 좋게 손질해주어 보는 재미에 먹기 편한 간편함까지 갖춘 것도 주목할 부분이다. 얼큰한 맛을 자랑하는 해물탕 국물은 깊고 진한 풍미가 단연 돋보인다. 게다가 해물탕과 함께 옥돔구이와 전복장, 그리고 명품 제주산 고사리 나물이 밑반찬으로 나오는 점은 섬의 인심을 엿볼 수 있다.이 외에 문어뚝배기와 전복뚝배기, 고등어구이, 전복구이, 전복 돌솥밥도 주문할 수 있어 고객이 선택할 수 있는 폭을 넓히고 있으며, 밑반찬으로 나오는 나물은 물론 김치도 직접 담근다고 하니 어느 하나 소홀하지 않은 모습을 엿볼 수 있다.업체는 “가족끼리 운영함으로써 맛은 물론이고 넉넉하고 푸짐한 인심을 자랑해 높은 고객 만족도를 얻고 있다. 제주공항 근처에 자리한 만큼 이후 일정에도 여유를 가질 수 있는 것도 장점이다”라고 전했다. 박길수 기자 bluysky2002@hanmail.net 기자의 다른기사 저작권자 © 디트NEWS24 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 추천뉴스 지하에 갇힌 사람들, 그리고 지상의 정치인들 감사원 ‘文 서면 조사 통보’에 여야 ‘정면 충돌’ 제40회 금산인삼축제 개막, '다양한 볼거리 먹거리' 대박예감 정진석·이재명 '균형발전' 공언, 충청권 메가시티 '기대감' [현장] “백제문화제가 돌아왔다” 들썩이는 부여 인기기사 주간 일간 1 [현장] “백제문화제가 돌아왔다” 들썩이는 부여 2 3년 만에 만나는 백제문화제 ‘100배 즐기기’ 3 한화이글스, 퓨처스리그 및 U-23 대표팀 연습경기 생중계 4 터크먼 라미레즈 페냐, 한화이글스 '외국인 3인방'의 운명 5 천안 원룸 여자친구 살해 조현진, 항소심서 징역 30년 6 한국타이어 금산공장 다물단, 소년소녀가장 가정에 생필품 전달 7 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 8 세종시 비알티 도로 '4시간 집중 단속'... 위험천만 현장 노출 9 서산시 동문2동 다가구주택 화재 10 대전은 소유권 이전 등기 전까지 전매제한 1 제1회 세종시 ‘어울링 바이크’ 투어... 오는 7일 접수 마감 2 세종서 시행 앞둔 '일회용 컵 보증금 반환제' 불편 우려 3 조승래 “연구비 부정 사용 과기부 연구개발사업 350건” 4 박영순 “정부까지 언론 상대 소송, 윤 정권 언론 길들이기 노골화” 5 천안시, 대규모 점포와 상생 도모 6 천안시설관리공단, 지역사회 화재 예방을 위한 ‘안전지킴이’ 7 새마을문고충남도지부, 2022 새마을문고지도자 교육 및 워크숍 실시 8 천안상록리조트, 수신면 독거노인 가구 사랑의 집수리 봉사활동 9 대덕구-나눔복지재단, 육아복합마더센터 운영 위수탁 협약 10 충남대, 2022년 세종도서 7권 선정 실시간 댓글 최신댓글 댓글많은기사 1 삼가 고인의 명복을 빕니다. 2 높아지기는 모습도 연출했다. 오타가 있네요 3 듣기 싫고 거북하면 , 안 하면 댜 !~~~ 4 자세한 내용은 모르지만 시민단체 어쩌고 하는 떨거지들과 거리를 유지하는 건 정말 잘하는 일이다 5 모듈라가 대전뿐이아니고 전국적으로다가 다허고있는디 대전만 금태둘럿네 6 애들 돈주는거는 좌파우파 안가리고 모든지로다가 대찬성이여 7 흐미 물감 아까워 8 손자라고 해서 그렇지 아들이라고 했으면 기분좋아서 그날 기분째졌을듯 9 오전부터 회의 영상 보면서 교육청직원들의 업무처리능력에 감탄 했어요 일을 그리 못하면서 월급 받는 능력자 시의원의 질의에 한 건도 명확한 답변이 없는 일 처리 능력이 정말 대단하십니다 10 모듈러교실이 있는곳으로 꼬옥 이사가서 손주들을 보내라 저런 분이 국회의원 되야 교육이 살아남을것인데. 아직 보수가 죽지 않았구려. 내 그대의 팬이 되겠소 1 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 2 "손주들 모듈러 교실로 꼭 보내라"..대전시의회, 시교육청 '난타' 3 이상래 대전시의장, 외유논란 사과...제주연수는 취소 4 대덕구의원 8명, 세비 반납도 구정질문도 안한다 5 서철모 서구청장, 본회의장에서 대놓고 의회 무시? 6 위태로운 9대 대전시의회, 애꿎은 사무처에 화풀이? 7 이상래 의장, 첫 정례회-전국의장협의회 불참 '외유 논란' 8 황운하·홍성국, 李에 ‘공공기관·대통령 집무실’ 지원 요청 9 대전 UCLG 총회 ‘반전’ 115개국·2700여 명 참가 등록 10 안장헌 의원, 전형식 부지사에 "좀 배우고 오세요" 직격 하단영역 주요뉴스 논산에 둥지 튼 ‘한국유교문화진흥원’ 문 열었다 엑스포조직위-건양대, 엑스포 성공 개최 업무협약 체결 천안시, 충남체육대회 종합우승...해단식 가져 감사원 ‘文 서면 조사 통보’에 여야 ‘정면 충돌’ 한국효문화진흥원, 10월 효의 달 명인회와 함께하는 기획 전시 대전시교육청, 김진수 부교육감 부임 목원대 컴퓨터공학과 여상수 교수, 대통령 표창 배재대 재학생 ‘2022 순천 전국 학생웹툰 공모전’ 우수상 최만묵 ㈜한남하이텍 대표, 한남대 명예이학박사 학위 수여 충남대, 2022년 세종도서 7권 선정 전체보기 Contact US 대표전화 042-471-8114 팩스 042-471-8120 제보전화 042-471-811424시간 긴급 기사·사건 제보(심야·공휴일) Infomation 매체소개 기사제보 광고문의 이용약관 언론윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 장기간행물등 사업등록증 : 대전 아 00003 등록년월일 : 2001-08-01 제호 : 디트NEWS24 법인명 : (주)디트뉴스24 발행일 : 2001-08-01 발행인 : 박길수 편집인 : 김재현, 박길수 청소년보호책임자 : 박길수 대전광역시 서구 한밭대로 755 (삼성생명) 삼성생명빌딩 703호 대표전화 : 042-471-8114 팩스 : 042-471-8120 [ 디트뉴스24 ] 사업자번호 : 305-81-63253 통신판매업신고번호 : 제2011-대전중구-0243호 Copyright © 2022 디트NEWS24. All rights reserved. naver-tv youtube facebook 위로 전체메뉴 전체기사 정치 전체 국회/청와대 대전 충남 세종 행정 전체 대전 정부대전청사 세종 정부세종청사 충남 경제 전체 건설·부동산 유통 금융 경영·기업 이기업인 창업정보 과학·IT·드론 대전테크노파크 스마트혁신 사회 전체 법원/검찰 경찰 대전 세종 충남 교육문화스포츠 전체 교육일반 초중고 대학 문화일반 공연전시 문학소설 스포츠 책이야기 책 기부 캠페인 내부칼럼 전체 사설 디트의 눈 데스크칼럼 관점 김학용 칼럼 외부칼럼 전체 자문위원 칼럼 자유기고 오광영의 손스피커 대덕구 혁신로드 강영환의 로컬노믹스 여정권의 야구에 산다 한기원 칼럼 권혁필의 새로운 생각 성광진의 교육 통(痛) 이지완의 포토詩세이 김충남의 열두줄 인문학 라창호의 허튼소리 가기천의 확대경 박경은의 힐링에세이 송선헌의 시와 그림 김종진의 행복한 인성 이야기 김경훈의 공감소통 변해섭의 선거법 해설 리헌석의 예술계 산책 정승열의 세계 속으로 송진괄의 신비한 산야초 오정균의 세상만사 박한표의 사진 한 장 강영환의 정치 톺아보기 손창규의 과학 한의학 길공섭의 빛그림 황종규의 술이야기 윤영애의 명리 山海境 디트맛집 전체 대전 세종 충남 언론계 전체 언론계 소식 미디어비평 본사-알립니다 디트메디 전체 의료계 의료인 충남디트 전체 천안·아산 서산·태안·당진 공주·부여·청양 예산·홍성 논산·계룡·금산 보령·서천 디트사이언스 전체 대덕특구 출연연구기관 중기벤처기업 보도자료 전체 대전시 세종시 충남도 동구 중구 서구 유성구 대덕구 기타 사람들 전체 부음 결혼 인사 행사·모임 수상 동정 사람들 우리기관 홍보맨 사람이 미래다 웰빙 전체 여행과 레저 트렌드 TV/연예 전체 TV 연예 대전교육복지소식 전체 교육청소식 학교소식 학생기자단 정보마당 충남체육예술교육 전체 충남도교육청 지역교육지원청 학교소식 미분류 지난연재 기타 전체메뉴닫기</t>
+    <t>위메프, 제주도 관광지 최대 67% 할인 서비스 선보여 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 산업 산업최신 산업/기업 유통/생활경제 패션/뷰티 음식/맛집 창업/취업 자동차 항공 중기/벤처 해양수산 위메프, 제주도 관광지 최대 67% 할인 서비스 선보여 등록 2017.06.29 11:24:15 작게 크게 【서울=뉴시스】최선윤 기자 = 위메프는 본격적인 여름 성수기 시즌을 맞아 제주도 내 300여개 관광지 및 여가 시설을 사전 발급한 바코드 하나로 최대 67% 할인된 가격에 이용할 수 있는 서비스를 선보인다고 29일 밝혔다. 제주도 대표 관광지 에코랜드를 비롯해 박물관은 살아있다, 카멜리아힐, 헬로키티아일랜드, 켄싱턴호텔 뷔페, 제주레일바이크, 서귀포 잠수함 등 300여곳의 테마공원, 레저 체험, 해양 레제 시설을 최대 67% 할인된 가격에 이용할 수 있다. 서비스 이용방법은 위메프에서 '제주 후불제'를 검색해 0원딜 구매 후 개인정보와 여행일정, 카드정보를 등록하면 여행기간 동안 사용 가능한 바코드가 문자로 발송된다. 이후 방문할 관광지에서 전송 받은 바코드를 제시하면 인원에 관계없이 할인된 가격으로 자동 결제가 된다. 등록된 개인 정보 및 결제 정보는 여행 일정 종료 시 자동으로 폐기된다. csy625@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 6내년부터 일시적 2주택자 취득 가산세 부담 완화 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 생태관광, 세계자연유산 제주속살을 만나다 Powered by HOSTWAY 뉴스레터 구독신청 베타경제 베타뉴스TV 로그인 회원가입 Last Update : 전체기사 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 전체기사 리뷰 가전리뷰 기획기사 벤치마크 구입가이드 탐방 인터뷰 칼럼/사설 팁테크 이벤트 동영상 전체기사 뉴스 탐방/인터뷰 이벤트 리뷰 기획기사 기자수첩/칼럼 종합 전체기사 종합 블록체인 정책 산업 중소기업 건설/부동산 국제경제 증권 금융 경제일반 생활경제 재계 제약/의료 전체기사 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 전체기사 문화 연예 스포츠 정치 제주소식 제주도 생태관광, 세계자연유산 제주속살을 만나다 심미숙 seekmisook@betanews.net 기사 입력 : 2017-06-28 14:55:39 제주특별자치도 세계유산본부(본부장 김홍두)가 주최하고 거문오름국제트레킹위원회(위원장 강만생)가 주관하는 ‘2017 세계자연유산 거문오름 국제트레킹이 7월 1일부터 7월 10일까지 열흘간 세계자연유산 거문오름 일대에서 진행된다. 올해 ‘세계자연유산 거문오름국제트레킹’ 행사는 세계자연유산 등재   10주년을 기념해 세계자연유산 제주 브랜드 가치를 제고하고, 세   계자연유산 생태체험 프로그램을 제공하기 위해 기획되었다. 세계자연유산 등재 10주년을 기념하기 위해 7월 1일 개막식에서는 세계자연유산 등재 범국민추진위원장을 맡았던 이수성 전 국무총리와 부위원장이었던 이인규 서울대 명예교수에게 감사패를 전달하고, 한라산 작가 채기선 화백 초대전을 7월 1일부터 8월 28일까지 제주세계자연유산센터 기획전시실에서 개최한다. 거문오름 트레킹 코스는 태극길(분화구 내부와 정상부 능선을 따르는 순환코스, 10㎞)과 용암길(거문오름에서 분출된 용암이 흘러내려간, 5㎞), 그리고 올해 신규 개설된 진물길(6km) 등 총 3곳이다. 태극길은 정상(1.8km, 1시간 소요) 또는 분화구(5.5km, 2시간 30분 소요), 능선(5km, 2시간 소요) 코스로도 탐방 가능하다. 태극길 분화구에선 세계자연유산 해설사의 설명을 들으며 걸을 수 있다. 용암길이 끝나는 지점에서 (전)탐방안내소까지는 평일 30분, 주말 20분 간격으로 순환버스가 운행된다. 행사 기간에는 사전 예약 없이 거문오름을 무료로 탐방할 수 있으며   평소 개방되지 않던 용암길도 개방된다. 탐방시간은 자연유산 보호와     탐방객 안전을 위해 오전 8시부터 오후 1시까지로 제한되며 탐방에   앞서 탐방안내소에서 반드시 사전 안내와 출입증을 받아야 한다. 트레킹 행사기간에는 다양한 공연도 마련되는데, 1일 개막식전 행사로 등재 10주년을 축하는 여성타악그룹‘도’의 축하공연이 열리며 방송인 허수경 토크콘서트(2일), 아카펠라그룹 ‘MAYTREE' 특별공연(8~9일)이 이루어진다. 또 유산마을 선흘2리  주민들과 함께하는 풍물단 공연, 선인분교 풍물패 공연, 제주’띠앗‘합창단 공연, 가수 김은경 특별공연도 이어진다. 체험 행사로는 세계자연유산지구 음식 홍보, 천연염색 체험, 친환경   목공체험, 까망고띠 제품 시식 및 홍보, 도라지즙/분말 식품 홍보 등   유산마을과 함께하는 체험부스가 운영된다. 또한, 제주세계자연유산의 다양한 사진을 찍어 페이스북 제주세계 자연유산거문오름국제트레킹에 등록하면 총 5명을 선정, 20만원의 상금을 주는 이벤트도 진행한다. 베타뉴스 심미숙 (seekmisook@betanews.net) Copyrights ⓒ BetaNews.net Google 뉴스피드에 Betanews를 추가하세요. 독점 비디오를 보려면 Youtube에서 베타뉴스TV를 구독하세요 목록 위로 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 제주소식 &gt;&gt; 카드뉴스 제주뉴스 개인정보취급방침 회사소개 연혁 찾아오는길 기사제보 광고문의 기사문의 RSS 구독하기 ㆍ(주)베타뉴스 ㆍ제호 : 베타뉴스 ㆍ발행일 : 2001년 9월 29일 ㆍ등록번호 : 서울아00247 ㆍ등록일 : 2006년 9월 8일 ㆍ발행인 겸 편집인 : 이직 ㆍ주소 : 04316 서울시 용산구 원효로 237 화전빌딩 3층 (주)베타뉴스 ㆍ광고문의 : 마케팅국장 김진호 ㆍ청소년보호책임자 : 박미선 ㆍ사업자번호 : 106-86-07377 ㆍ통신판매업 신고 : 용산 제00314호 ㆍ전화 : 02-3211-3040 ~1 ㆍFAX : 02-714-3042 ㆍ문의메일 : leejik@betanews.net Copyright(C) 1999-2017. BetaNews co. ltd. All rights reserved</t>
+  </si>
+  <si>
+    <t>제주도 관광정책은 ‘짐작치기’ 통계·자료의 산물? &lt; 도의회 &lt; 정치 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도 관광정책은 ‘짐작치기’ 통계·자료의 산물? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 도의회 제주도 관광정책은 ‘짐작치기’ 통계·자료의 산물? 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2017.06.28 14:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도의회 예산결산특별위원회 구성지 의원(안덕, 바른정당). ⓒ제주의소리 구성지 의원 “총괄피해는 알면서 업종별 피해정도는 몰라? 자료가 부실하니 정책도 부실”제주도의 관광정책이 이른바 ‘짐작치기’ 통계·자료에 의해 엉성하게 추진되고 있다는 지적이 제기됐다.제주도의회 예산결산특별위원회 구성지 의원(안덕, 바른정당)은 28일 제주도지사가 제출한 2017년도 제1회 추경예산안 중 문화관광스포츠위원회 소관 심사에서 과학적인 통계분석에 의한 정책 추진 필요성을 강하게 제기했다.구성지 의원은 중국발 ‘사드보복’ 조치에 따른 제주지역 관광업계 피해분석자 정밀하지 않다는 점을 문제 삼았다.구 의원은 “중국인 관광객이 줄었다고 해서 제주도가 망하느냐”고 선문답을 던진 뒤 이승찬 관광국장으로부터 “그렇지는 않다”는 답변이 돌아오자 “그렇다면 관광업계에서도 어떤 업종이 피해를 입고 있느냐”고 따져 물었다.이에 이승찬 국장은 “중국인 단체관광객을 대상으로 한 업종이 타격을 받은 것으로 나타났다”며 대표적으로 음식점, 면세점. 전세버스를 꼽았다.그러자 구 의원은 “그렇다면 그 쪽 업계가 얼마만큼의 피해를 입고 있는지 분석 자료가 있느냐”고 물었고, “총괄적으로 파악하고 있는데, 업종별로는 파악한 자료가 없다”고 답변하자 “세부적인 것도 모르면서 어떻게 총괄적인 자료가 나올 수 있느냐. 그렇게 ‘짐작치기’ 자료에 의해 정책을 추진한다는 게 말이 되느냐”고 질타했다.이 국장이 “업종별로 분석하는게 쉽지는 않지만 파악해보도록 하겠다”고 양해를 구했지만, 구 의원은 “행정을 하면서 쉬운 게 하나도 없다. 힘들더라도 그런 가장 기본적인 조사는 반드시 해야 한다”면서 “실질적인 피해상황이 어떤 것인지 정확한 자료가 있어야 그에 맞는 대책도 나올 수 있는 것”이라고 지적했다.그러면서 “행정은 어떠한 상황이 벌어지더라도 제대로 분석을 해서 발 빠르게 대응할 수 있어야 한다. 기본적인 통계·자료에 대해 불신을 갖게 되니까 관광정책 자체에 신뢰가 가지 않는다”며 보다 적극적인 행정을 주문했다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>사드 쇼크…4~5월 제주도 관광손실 2천억 넘었다 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 로봇 이데일리 단독 경제 정책 금융 채권 외환 조세 산업·통상 팜이데일리 마켓in 스냅타임 사드 쇼크…4~5월 제주도 관광손실 2천억 넘었다 [한국은행 지역경제보고서 발간] 등록 2017-06-26 오후 12:00:00 수정 2017-06-26 오후 12:00:00 가 가 김정남 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 중국의 사드 보복이 본격화 한 지난 3월 제주 서귀포시 성산읍 성산 일출봉의 버스 주차장이 한산한 모습이다. 사진=연합뉴스[이데일리 김정남 기자] 우리나라의 주요 관광지로 꼽히는 강원과 제주를 찾은 외국인 관광객이 최근 급감한 것으로 나타났다.이는 중국의 사드(THAAD·고고도미사일방어체계) 보복이 주 요인인 것으로 풀이된다. 외국인 관광객이 줄면 관광업 비중이 높은 이들 지역의 경제에는 부정적인 영향이 우려된다.26일 한국은행이 내놓은 지역경제보고서를 보면, 올해 4~5월 중 제주도를 찾은 외국인 수는 지난해 같은 기간과 비교해 47만2000명 줄었다. 내국인 관광객은 같은 기간 26만7000명 더 증가했지만, 결과적으로 제주도를 찾은 관광객은 20만명 넘게 감소한 것이다. 게다가 외국인은 관광지에서 내국인보다 지출이 크다. 지난 2015년 기준으로 외국인과 내국인은 제주도에서 각각 60만8000원, 27만1000원을 쓴 것으로 파악됐다. 이를 바탕으로 추정한 올해 4~5월 관광손실은 2147억원이라는 계산이 나온다. 내국인 수입은 723억원 늘었지만, 외국인 손실이 2870억원이나 됐기 때문이다.외국인 관광객 지출의 50%가량이 집중되는 것으로 알려진 면세점과 대형마트 등의 부진이 두드러졌다. 올해 3~4월 제주 지역의 대형소매점 판매액지수는 전년 동기 대비 두자릿수의 마이너스(-) 증가율을 기록했다.고경환 한은 제주본부 과장은 “주로 중국 당국의 단체 방한 관광금지 조치에 기인하는 것”이라면서 “제주 경제에 부정적인 영향을 미치고 있다”고 말했다.제주도는 이에 대응하기 위해 동남아 지역 전세게 취항, 제주~일본 정기편 신규 편성 등 관광객 유치 노력을 벌이고 있다.강원도 상황이 다르지 않다. 4~5월 강원도를 찾은 외국인 관광객이 아직 정확하게 집계되지는 않지만, 각종 관광지를 탐방한 결과 전년 동기 대비 큰 폭 감소했을 것이란 게 한은의 예측이다.실제 4월과 5월 남이섬을 찾은 외국인은 지난해 같은 기간 대비 각각 4.5%, 33.2% 줄었다.특히 사드 이슈의 영향으로 중국인 방문객이 각각 92.8%, 94.6% 감소했다. 지난해 3분기와 4분기 각각 155.7%, 25.5% 급증했던 것과는 완전히 달라진 분위기다.박종필 한은 강원본부 과장은 “동남아 지역 이슬람권 국가의 관광객 수도 5월 들어 큰 폭 감소했다”고 했다. `사드 배치` 논란 이슈 더보기 사드 보복 직격탄…제주·강원 피서지 방문객 급감(종합) 사드 쇼크…제주 소매점판매 사상 첫 마이너스 사드보복·내수부진에 원료값 상승까지…캄캄한 음식료株 주요뉴스 "내 노후 어쩌나" 국민연금 상반기 적자 76조 6600억 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 선우은숙, 4살 연하 유영재 아나운서와 재혼 혼인신고 마쳐 [공식] 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2[누구집]남궁민 7년 열애끝 웨딩마치, 신혼집은? 3선우은숙, 4살 연하 유영재 아나운서와 재혼 "혼인신고 마쳐" [공식] 4“혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 53선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 카드뉴스[카드뉴스] 2022년 10월 11일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토]'파퀴아오와 대결' DK YOO "기부 경기지만 진짜로 싸우겠다" [포토]깊어가는 가을을 즐기세요! [포토]'국정감사 출석하는 최재해 감사원장' [포토]간담회에서 발언하는 김현숙 여가부 장관 [포토]오세훈 시장, 2022 서울워크에서 청년들과 '토크 콘서트' [포토]대체공휴일에 열린 집회 [포토]건강한마당, 댄스 배우는 시민들 [포토]쌀쌀해진 날씨, 겨울옷 입은 나무들 [포토]상춘객 유혹하는 하얀 코스모스 [포토]금리인상에 '영끌'은 옛말...2030 서울 아파트 매입 비중 '뚝' 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2 “혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 3 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 4 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 5 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 6 대통령 직접 방문했지만…국공립 어린이집 예산 19% 삭감 7 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 8 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 9 송가인, 목포콘서트→팬미팅 '바쁘다 바빠' 10 '음주측정 거부 체포' 신혜성 "변명의 여지 없다..죄송" 1 삼성전자마저…코스피, 3분기 실적 대참사 시작되나 2 "금리 급등하는 지금이 적기" vs "섣불리 덤볐다가 큰코다쳐" 3 스팩합병 전성시대…역대급 흥행에 덩치 커진다 4 글로벌 기업들 ESG 속도 내는데 G에 발묶인 한국 5 KPMG, '아시아 최우수 리스크 컨설팅펌' 선정 6 [미리보는 이데일리 신문] 수리남 제작사도 참패…고금리에 기업 돈줄 마른다 7 상장사 10곳 중 1곳 주가 1년새 '반토막' 8 [뉴스새벽배송]월가 황제 “S&amp;P 3000선 붕괴”…미 증시 또 약세 9 美 CFA협회 "ESG 자격증 도입, 韓 거버넌스 개선 기대" 10 HLB생활건강 "새치 커버 샴푸에 논란중인 염모제 성분 없어" 1 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 2 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" 3 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 4 '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 5 '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 6 '아바드림' 오승근, 故 김자옥과 생사초월 듀엣 감동 7 '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 8 '미우새' 김준호, 조기 퇴근 걸고 처절한 몸부림 '폭소' 9 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' 10 '삼식이 삼촌' 송강호→변요한·이규형·서현우 캐스팅 라인업 완성 [공식] 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 코아스템 “자사 루게릭병 치료제, 대조군比 생존기간 5.6년 길어”...FDA 통과 ‘청신호’ 스무살의 설레임 스냅타임 왼쪽 오른쪽 유튜브 고유 아이디 ‘핸들’ 기능 추가...이름쟁탈전 벌어질까 2022년 10월 11일 오늘의 운세 2022년 10월 10일 오늘의 운세 경기도, 도민과 함께 576돌 ‘한글아 놀자’ 행사 ‘고딩엄빠’는 환상, 이 잔인한 통계를 보라 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 이제부터가 진짜 하락장이다 JW중외제약, 1500억 혈우병 치료제 시장 통째로 삼킨다 아름다운 빛으로 풀어낸 정조의 꿈 수원, 정조의 발자취를 따라서 1기 신도시 마스터플랜이 뭐길래 두근두근 핫포토 우승 가자! 北 전술핵운용부대 '드레스를 조심해' "어이가 없네" 왼쪽 오른쪽 나이스 샤아앗~ㅣ골프in [포토]박민지 '시즌 5승 만들어준 볼입니다' 당신의 드림카는?ㅣ오토in 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 "비위판사 연금 깎겠다던 법원, 여론 잦아들자 '도입 불가'"[2022국감] 이슈기획 ㅣ 금리 인상 여파 "한은 금통위, 10월 이어 11월도 빅스텝 나설 듯" 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? 수억씩 `뚝뚝`…부동산 한파에 뉴타운도 ‘악’ 소리 이슈기획 ㅣ 尹 대통령 비속어 파문 尹대통령 “그냥 먹어도 되나?”… 김남국 “큰형님 마냥 습관적 반말” 이슈기획 ㅣ 신당역 역무원 피살 사건 '신당역 스토킹 살인' 전주환, 오는 18일 재판절차 시작 오늘의 주요 기사 월가 황제 "고통 속 S&amp;P 3000선 붕괴"…바닥 안 보인다 "내 노후 어쩌나" 국민연금 적자 '76조 6600억' 정진석 “조선은 썩어서 망해”…野 “친일 앞잡이, 천박” 맹비난 .국감 취재하던 기자, 화장실서 심정지로 쓰러져…병원 이송 .선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" .쇼핑몰 대박 난 강민경, '65억 건물' 매입해 신사옥 입주 ."尹, 한동훈 애정어린 눈으로"...'이재명 대북코인' 부메랑? .상폐 심판대 선 신라젠..16만 개미 눈물 닦을까 .코레일, GTX 개통 시 연간 1000억원 손해…재무건전성 ‘빨간등’ 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 - 현대삼호중공업 LNGC 1척 수주…계약금액 3468억원 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>제주도 4~5월 외국인 관광수입 2870억 줄었다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:39 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 4~5월 외국인 관광수입 2870억 줄었다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 4~5월 외국인 관광수입 2870억 줄었다 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.06.26 12:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 한국은행 제주본부, 지역경제 모니터링 결과 대형마트 매출액 줄고, 내국인 상대 업종은 늘고 중국정부가 우리나라의 고고도 미사일 방어체계(사드, THAAD) 배치에 따른 보복조치로 한국관광 금지령을 내린 후 외국인관광객 급감으로 제주도 관광수입이 크게 감소한 것으로 나타났다.한국은행 제주본부가 26일 발간한 '지역경제 보고서' 자료에 따르면 2분기 중 제주경제는 1분기 수준을 유지한 것으로 조사됐다. 그러나 4~5월 제주를 방문한 관광객 수가 중국인 중심의 외국인 관광객이 크게 줄어들면서 지난해 같은기간과 비교해 7.3% 감소했다.내국인은 12.4% 증가했으나 외국인에서 무려 72.7% 줄어들었다.이 기간 제주지역 관광수입은 총 7657억원으로, 지난해 같은기간 9804억원과 비교해 전체적으로  2147억원 감소한 것으로 나타났다.내국인 관광수입은 723억원 증가한 반면, 외국인 관광수입은 2870억원 감소했다. 특히 외국인 관광수입은 지난해 3949억원에 달했으나, 올해에는 1079억원에 그쳤다.업태별로는 면세점, 대형마트 등의 매출액이 크게 감소한 반면, 지역 음식점, 렌터카 등 내국인을 상대하는 일부 업종은 업황이 소폭 개선된 것으로 나타났다.서비스업은 외국인 관광객 감소에도 불구하고 내국인 관광객이 늘고 도내 수요도 견조한 모습을 보이면서 보합수준을 나타냈다. 숙박업은 1분기와 비교해 매출이 줄어든 반면, 렌터카업.전세버스업.골프업 등은 매출이 증가했다.내국인 관광객과 도민의 이용률이 높은 전통시장 및 중소형 마트 등의 매출도 증가한 거승로 나타났다.이번 지역경제 보고서는 한국은행 제주본부가 지난 5월19일부터 6월7일까지 제주지역내 업체 및 유관기관 50개를 대상으로 실시한 지역경제 모니터링 결과에 따라 작성된 것이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광수입 4~5월 2,147억원 감소 TV LIVE VOD 튜브온 주요행사 채널안내 편성표 전체뉴스 MTN deep 한 발 더 깊고 한 걸음 더 넓은 뉴스 MTN hip요즘 뜨는 '힙(hip)'한 이슈 핫리포트핫라인5 생생리포트 MTN 인사이트경제에 통찰력을 더하다 MTN 기자실경제전문 기자들의 취재파일 연속 기획보도이슈를 파고드는 기획취재 연중대기획고품격 특집 다큐멘터리 여의도튜브 발칙한 경제 주식초등학교 Pick 튜브기사보다 더 깊은 이야기 TV LIVE VOD 튜브온 주요행사 채널안내 편성표 최신뉴스 정책종합 제주도 관광수입 4~5월 2,147억원 감소 머니투데이방송 조정현 기자 입력 2017-06-26 17:52:50 가 [머니투데이방송 MTN 조정현 기자] 고고도미사일방어체계, 사드 배치에 대한 중국의 보복으로 제주도 관광수입이 최근 두달 동안 지난해보다 2천억원 이상 감소한 것으로 나타났습니다. 한국은행이 발표한 지역경제보고서를 보면, 제주도의 지난 4월과 5월 관광수입 감소액은 2,147억원에 달했습니다. 내국인 관광객이 늘어 723억원의 수입 증가분이 생겼지만, 중국인 등 외국인 관광객 수 감소로 인한 감소액이 2,870억원으로 집계됐습니다. 중국인에게 인기가 많은 강원도 일부와 인천 지역도 타격을 입어, 4월과 5월 남이섬을 찾은 중국인 관광객 수가 90% 이상 급감했습니다. 머니투데이방송의 기사에 대해 반론·정정추후 보도를 청구하실 분은 아래의 연락처로 연락주시길 바랍니다, 고충처리인 : 콘텐츠총괄부장 ombudsman@mtn.co.kr 02)2077-6288 MTN 기자실 경제전문 기자들의 취재파일 전체보기 Pick 튜브 기사보다 더 깊은 이야기 전체보기 많이 본 뉴스 분야별뉴스 취재와이드 MTN 기자실 Pick 튜브 바로가기 분야별뉴스 P4F MTN deep MTN hip 핫리포트 MTN 인사이트 연속 기획보도 연중대기획 MTN 기자실 Pick 튜브 여의도튜브 발칙한경제 주식초등학교 K-디펜스 월가워즈 여의도약방 니은티비 바로가기 검색 TV LIVE APP 소개 MTN YOUTUBE 회사소개 광고제휴안내 이용약관 청소년보호정책 개인정보처리방침 공시조회 (주)머니투데이방송    대표이사 유승호 (07328) 서울특별시 영등포구 여의나루로 60 (여의도동,여의도우체국) 2,4층 등록번호 : 서울 아01083    대표전화 : 02-2077-6200 기사배열책임자 콘텐츠총괄부장    청소년보호책임자 디지털기획부장 Copyright ⓒ MTN All Right Reserved</t>
+  </si>
+  <si>
+    <t>제주도 세종사무소 공직자들, 중앙부처 제주관광 홍보 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:39 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 세종사무소 공직자들, 중앙부처 제주관광 홍보 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도 세종사무소 공직자들, 중앙부처 제주관광 홍보 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.06.27 17:34 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도청 서울본부 세종사무소는 27일 제공회(濟公會), 중앙부처 파견 공무원과 함께 제주관광 홍보 캠페인을 전개했다.이번 행사는 2005년 지정된 '세계평화의 섬' 브랜드를 활용해 청정과 공존을 미래 비전을 실현하는 제주를 중앙행정·정부출연 연구기관 직원 및 가족에 홍보하기 위해 마련됐다.세종사무소는 이날 정부세종청사 내 종합안내실과 국토교통부 구내식당 앞에서 입주한 공무원과 민원인 약 500여명을 대상으로 제주 관광 홍보 책자 5종과 기념품을 나눠줬다.특히 제주도청 총무과, 환경자산물관리과, 제주개발공사, 제주관광공사, 제주관광협회, 그리고 제주테크노파크 등에서도 이날 행사를 지원해 중앙부처 공무원들에게 제주의 이미지를 고취시키는데 힘을 보탰다.기획재정부 관계자는 "제주를 알리는 행사가 부족해 아쉬웠는데 이번 계기를 통해 제주에 대한 인지도가 많이 높아지는 것 같다"면서 "종합안내실에 비치한 관광홍보책자가 많은 인기를 끌고 있는 만큼 앞으로도 홍보 캠페인이 꾸준히 지속된다면 중앙부처의 공무원들도 제주를 더 깊이 인식할 것"이라고 전했다.세종사무소 관계자는 "이번 행사를 바탕으로 제주에 대한 홍보를 일회성으로 그치지 않고 세종시내 주요 거점을 중심으로 지속적으로 홍보를 전개할 계획"이라며 "중앙공무원과 도청과의 적극적 가교역할을 통해 제주의 청정과 공존, 아울러 평화도시로써의 세계적 이미지 확산으로 글로벌 경쟁력이 강화될 수 있도록 최선의 노력을 아끼지 않을 예정"이라고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, '아태 관광지 지속가능 관리 워크숍' 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:39 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, '아태 관광지 지속가능 관리 워크숍' 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, '아태 관광지 지속가능 관리 워크숍' 개최 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2017.06.27 10:52 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 유엔훈련연구기구(UNITAR) 제주국제연수센터(소장 마영삼, 이하 센터)와 세계지방정부연합 아태지부(UCLG-ASPAC), 제주관광공사와 공동으로 이달 27일부터 30일까지 4일간 일정으로 라마다 제주 서귀포호텔에서 '아태지역 해안관광지를 위한 지속가능한 관광 관리' 워크숍을 개최한다고 밝혔다.이번 워크숍에는 아시아태평양 지역 9개국(미얀마, 방글라데시, 베트남, 스리랑카, 인도네시아, 캄보디아, 태국, 필리핀, 한국)에서 관광, 환경, 공공정책 분야 담당 공무원 및 관광분야 연구원, 시민사회 관계자 21명이 참여하고, 유엔환경(UN Environment), 아시아개발은행(ADB), 서울대학교, 홍콩과학기술대학교, 영국써리대학교, 제주올레에서 초청된 6인의 전문가가 '아태지역의 해안관광지를 위한 지속가능한 관광 관리'라는 큰 주제를 갖고 아태지역 참가자의 지식함양에 나서게 된다.발표자로 참여하는 서울대학교 강미희 교수는 "이번 워크숍은 아시아 태평양 지역에서의 지속가능한 해양관광 개발과 관리를 위한 유엔 차원의 움직임과 구체적인 실행전략을 교육하고 토론하기 위해 계획됐다"며 "기후변화라는 세계적 위기에서 유엔의 지속가능개발 비전과 전략, 관광부문의 지속가능한 소비와 생산 10개년 계획 프로그램에 대해 교육하고, 구체적인 실행전략으로서 해안지역의 생태관광 개발 및 마케팅 전략에 대해 논의함으로써 정책입안자는 물론 현장활동가들의 역량을 강화하는 데 큰 도움을 줄 것"이라고 말했다.발표자로 참가하는 홍콩과학기술대학교 호텔경영학과 데니스톨카츠 교수는 "이번 워크숍을 통해 지역과 국가의 지속가능한 발전을 위해 관광이 어떤 역할을 하고 있는지에 대해 생각해보는 유익한 시간이 될 것이다"라고 기대감을 나타냈다.스리랑카 골(Galle) 남부주 주지사 사무실 카마니 마베위라마 (Kamani Abeywickrama) 국제관계담당관은 "관광분야가 경제발전을 이루기 위해 매우 중요한 산업이라는 인식이 전 세계적으로 공유되고 있는 가운데, 한정된 자원을 효율적으로 이용할 수 있는 방법, 특히 지속가능한 관광 관리에 매우 중요한 요소로 떠오르고 있다"며 "이번 워크숍을 통해 관광과 자원관리 분야에서 역량을 강화하고 골 남부주에 의미 있는 변화를 이끌어내고 싶다"라는 참가 소감을 전했다.이번 워크숍에는 UNITAR가 개발한 '도시 간 정보공유 방법론'을 활용한 그룹 활동을 비롯해 다양한 토론 기회 제공으로 참가자의 지역 내 사례 공유를 공유하고, 이를 통한 지역 맞춤형 해안관광지 관리 및 관광정책 수립에 도움이 될 것으로 기대된다.또한 참가자들은 '성산일출봉과 주상절리대'를 방문해 제주도의 해안관광지 정책 등에 관한 전문가 설명을 듣고 지속가능한 해안관광정책 적용 사례를 관찰할 예정이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광·감귤 관련 규제 완화...야영장업 강화 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 관광·감귤 관련 규제 완화...야영장업 강화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 관광·감귤 관련 규제 완화...야영장업 강화 기자명 윤주형 기자 입력 2017.06.20 14:29 수정 2017.06.20 19:56 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 지난 2일과 14일 각각 자치법규 개정을 통해 관광사업과 감귤 분야 규제 등 7건를 완화하고, 야영장업 등 9건은 강화하는 등 모두 20건의 규제를 개선했다. 도는 지난 2일 개정된 관광진흥 조례를 공포했다. 이번에 시행되는 관광진흥 조례는 관광사업 등록기준, 설비 기준 완화 등을 포함하고 있다. 이에 따라 휴양콘도미니엄업은 객실 밖에 취사시설을 갖춘 경우 총 객실의 30% 이하에서 취사시설을 갖추지 않아도 되도록 하는 등 규제 5건을 완화했다. 하지만 도는 도민과 관광객의 안전을 위해 종합·일반 유원시설업의 허가를 신청할 때 안전관리계획서를 제출하도록 하는 등 9건이 강화됐다. 이와 함께 감귤 생산 및 유통에 관한 조례 시행규칙도 개정, 감귤 유통의 편의를 위한 소포장 출하 확대, 노지 온주밀감 크기 기준 완화 등 규제 2건을 완화했다. 이외에도 유원시설업 안전 관리자에 대한 교육 내용과 절차, 제주별빛누리공원 수탁자의 보험가입 및 증서 제출 의무, 자치경찰공무원 임용시험 부정행위자에 대한 조치 규정 등 상위법령이 규정하거나, 위임이 없는 규제 4건은 폐지됐다. 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[분석Q] '효리네민박' 과도한 제주도 관광지 홍보 '제주 민박집 에이전트인가' 시청자는 불편하다 - 스포츠Q(큐) × 전체기사 스포츠일반 전체 아마스포츠 농구 배구 골프 e스포츠‧게임 당구 테니스 격투기 경마·승마 미식축구 장애인스포츠 야구 전체 프로야구 해외야구 아마야구 리틀야구 축구 전체 K리그 대표팀 해외축구 아마축구 스포츠산업 전체 스포츠포럼 스포츠경영 스포츠정책 엔터테인먼트 전체 영화·드라마 가요 예능 방송·TV 문화일반 핫&amp;쿨Q 라이프 전체 식품‧음료 패션‧뷰티 유통‧물류 가전‧리빙 교육‧육아 의료‧건강 여행‧레저 금융·부동산 IT·자동차 대회·행사 산업일반 뉴스&amp;이슈 전체 시사Q 이코노Q 토픽세상 오피니언 포토 전체 야구 축구 스포츠일반 스포츠산업 컬처Q 글쓰는 사진기자 tvQ 전체 민기홍의 머니뭐니 랭킹 겸 차트 혹은 밸붕방지톡 UPDATED. 2022-10-11 12:44 (화) 기사검색 검색 스포츠 아마스포츠 농구 배구 골프 테니스 미식축구 격투기 장애인스포츠 e스포츠 경마 당구 야구 프로야구 해외야구 아마야구 리틀야구 축구 K리그 대표팀 해외축구 아마축구 스포츠산업 스포츠포럼 스포츠경영 스포츠정책 엔터 영화·드라마 가요 예능 방송·TV 문화일반 핫&amp;쿨Q 라이프 식품‧음료 패션‧뷰티 유통‧물류 가전‧리빙 교육‧육아 의료‧건강 재테크·주거 대회·행사 뉴스&amp;이슈 시사Q 이코노Q 토픽세상 오피니언 포토 야구 축구 스포츠일반 스포츠산업 컬처Q 글쓰는 사진기자 로그인 회원가입 RSS SNS 트위터 페이스북 블로그 스포츠Q 포스트 카카오스토리 플러스친구 매거진SQ 포스트 유튜브 네이버TV 이전 다음 [분석Q] '효리네민박' 과도한 제주도 관광지 홍보 '제주 민박집 에이전트인가' 시청자는 불편하다 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 엔터테인먼트 방송·TV [분석Q] '효리네민박' 과도한 제주도 관광지 홍보 '제주 민박집 에이전트인가' 시청자는 불편하다 박영웅 기자 승인 2017.06.28 10:37 댓글 0 기사공유하기 페이스북 트위터 카카오스토리 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [스포츠Q(큐) 박영웅 기자] '효리네민박'이 첫 회 방송부터 높은 시청률과 이슈를 모으며 성공적인 출발을 알렸다. 하지만 일부 시청자들은 효리네 민박의 구성이 제주 관광지 홍보에 너무 치중된 것 아니냐는 비판도 나오고 있다.지난 25일 종합편성채널 JTBC '효리네민박'이 첫선을 보였다. 톱스타 이효리의 근황과 남편 이상순이 TV에 그대로 공개된다는 점은 시청자들의 눈을 한꺼번에 사로잡기 충분했다.이효리의 털털한 삶과 이상순의 아내에 대한 애정 역시 시청자들에게는 최고의 볼거리였다. 하지만 '효리네민박'이 호평만 듣기에는 아쉬운 부분도 많았다. 특히 '효리네민박'이 보여준 광고성 장면들이었다. 현재 '효리네민박'의 촬영지는 제주도 제주시 근방이다. '효리네민박'이 과도한 제주도 관광지 홍보로 일부 시청자들에게 비판받고 있다. [사진=JTBC '효리네민박' 방송 캡처]이중 이효리가 생활하고 있는 곳은 실제 관광객들이 많이 찾는 곳으로 알려졌다. 의도했건 의도하지 않았건 방송은 관광객들이 많이 찾는 곳을 중심으로 그곳의 민박집과 가게 등을 은근슬쩍 홍보하는 모습을 보여줬다.굳이 가지 않아도 될 민박집을 찾는다는 설정이라든지, 사소한 물건 하나하나를 사는 장면을 다 보여주며 가게 주인이 출연하거나 상호를 인지할 수 있는 상황을 연출 한다든지 하는 장면은 지나친 홍보성을 띄고 있었다.'효리네민박'이 시청자들에게 계속해서 사랑을 받기 위해서는 이런 상업성과 의도적인 관광지 홍보 등을 피해야 한다.현재 제주도는 '중국 자본이 대거 들어왔다'는 소문이 퍼지고 내국인에게 오히려 빡빡한 관광지라는 소문이 퍼지면서 국민정서상 결코 호의적이지 않은 분위기가 형성되고 있었다.이런 와중에 제주 관광지를 일방적으로 홍보하고 마치 지상낙원인 듯 방송하는 모습은 반감만 키울 위험성이 있다. 이 때문에 '효리네민박'은 제주도의 실상과 문제점 등도 조금씩 다뤄주며 고쳐야 할 점을 지적하는 것이 프로그램의 완성도 측면에서 더욱 좋은 것이 아닐까? 제작진의 현명한 선택이 요구되는 시점이다. 도전과 열정, 위로와 영감 그리고 스포츠큐(Q) 저작권자 © 스포츠Q(큐) 무단전재 및 재배포 금지 트윗하기 박영웅 기자 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 인기기사 채팅 만남 男에게 수면제 먹이고 코인 빼돌린 간큰 女 대통령의 관심사, 토르티야 가격 내년 건강보험료율 인상, 직장인 얼마나 더 내나 지구는 대체 얼마나 아픈 걸까? 기후변화 심각 'TV 필수'라 생각하는 국민 비율 얼마나 될까 주요기사 이대호라서... 이런 은퇴식 또 있을까? 이대호라서... 이런 은퇴식 또 있을까? '오재원 땡큐', 두산 팬들 간절한 소망 [SQ현장] '오재원 땡큐', 두산 팬들 간절한 소망 [SQ현장] 최국희 감독이 밝힌 '인생은 아름다워' 비하인드 [인터뷰Q] 최국희 감독이 밝힌 '인생은 아름다워' 비하인드 [인터뷰Q] 김광현+노경은, 완벽했던 신구조화 [랜더스 우승] 김광현+노경은, 완벽했던 신구조화 [랜더스 우승] [랜더스 우승] 정용진+인천팬, 퍼펙트 2022 [랜더스 우승] 정용진+인천팬, 퍼펙트 2022 염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 포토Q [포토Q] 최진혁 '논란 후 첫 공식 석상' [포토Q] 최진혁 '논란 후 첫 공식 석상' [포토Q] 영탁 '품격있는 인사' [포토Q] 영탁 '품격있는 인사' [포토Q] 나나 '시선 끄는 타투' [포토Q] 나나 '시선 끄는 타투' [포토Q] 영탁 '댄스 퍼포먼스 슬쩍' [포토Q] 영탁 '댄스 퍼포먼스 슬쩍' [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 드라마 '옷소매 붉은 끝동' 함께한 이월연 PD-정지인 감독 [포토Q] 드라마 '옷소매 붉은 끝동' 함께한 이월연 PD-정지인 감독 오늘의 인기기사 스포츠 연예 라이프 1'피겨왕자' 차준환, 챌린저 쇼트 1위보다 기쁜 건? 21픽 신호진, OK금융이 그리는 미래는? [프로배구] 3넥슨 '블루 아카이브' 아트북, 일본 아마존 도서 흥행 돌풍 4엔씨소프트, '2022 글로벌 리크루팅' 온라인 설명회 진행 5넷마블, 2022년 3분기 '대한민국 100대 브랜드' 선정 6컴투스 '서머너즈 워' 뉴욕 코믹콘 출격, 글로벌 팬 만난다 7위메이드 'Gold Club' 온보딩 계약, 위믹스 생태계 확장 본격화 8위메이드, 단기 금융거래 플랫폼 CLST 전략적 시드 투자 9우즈 오버랩 김주형, 얼마나 대단하냐면 [PGA] 10컴투스 글로벌 콘텐츠문학상, 선호 장르-대세 주제는? 1염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 2정직한후보2, 김진태 도지사 글 때문에 '난감' 3남궁민 '치트키', 천원짜리 변호사 OTT도 1위! 4지코, '새삥'으로 음원차트 독주 시작 [Q차트] 5세븐틴 이어 블랙핑크도… '더블 밀리언셀러' 시대 온다 6평창·강릉 다음은 부천? 사라지는 지역영화제 7예능·드라마 공세…디즈니+, 구독자 몰이 나선다 8당당함 무기로, '4세대 걸그룹' 10월 컴백 대전 9'경북대 축제 논란' 아이브, 전말 밝혀졌다 10"안 할 이유 없었다" 김혜수는 왜 '슈룹'을 택했을까 [SQ현장] 1광양 아파트 분양, 용강지구 푸르지오 센터파크 2슈퍼주니어 이특·신동, 쿠팡라이브 출연…제품 개발 참여까지 3롯데건설, 지능형 스마트 계측기술 개발한다 4CJ올리브영 '즐거운 동행', K뷰티 유망주 찾는다 5"미래성장동력 육성" 콜마그룹, 2500억원 투자 펀드 참여 6배스킨라빈스 플래그십 스토어, 부산행 7식품업계 트렌드, 가심비 잡는 프리미엄화 8교원그룹 '데모데이' 성료, 유망 스타트업 8곳 소개 9'백해무익' 담배, 태워서 발생하는 문제점은? 10BBQ, 오클라호마 진출... 미국 20번째 주 최신뉴스 작은 아씨들→글리치, 워맨스 릴레이ing 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 [포토Q] 인사말 전하는 이기훈 회장 [포토Q] 파퀴아오-DK YOO 매치 성사시킨 이건애 대표 [포토Q] 파퀴아오-DK YOO 매치 성사시킨 이건애 대표 [포토Q] 디케이 유 '훈남 무술가' [포토Q] 디케이 유 '훈남 무술가' [포토Q] 파퀴아오 '여유 넘치는 필리핀 영웅' [포토Q] 파퀴아오 '여유 넘치는 필리핀 영웅' 포토뉴스 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 회사소개 취재요청 독자투고 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 금천구 서부샛길 606 (대성디폴리스지식산업센터) A-1702호 대표전화 : 02-6959-1222 청소년보호책임자 : 이두영 법인명 : (주)와이케이미디어 제호 : 스포츠Q(큐) 등록번호 : 서울 아 02891 등록일 : 2013-11-18 발행일 : 2013-11-18 발행·편집인 : 이두영 스포츠Q(큐) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 스포츠Q(큐). All rights reserved. 기사문의 · 제보 : webmaster@sportsq.co.kr 광고문의 : biz@sportsq.co.kr 위로</t>
+  </si>
+  <si>
+    <t>신관홍 제주도의장 "오라관광단지 개발 자본검증 먼저" | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 신관홍 제주도의장 "오라관광단지 개발 자본검증 먼저" 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 신관홍 제주도의장 "오라관광단지 개발 자본검증 먼저" 송고시간2017-06-12 11:22 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 원희룡 제주지사에 자본검증위원회 구성 요청 (제주=연합뉴스) 변지철 기자 = 신관홍 제주도의회 의장은 12일 제주 최대 규모의 복합리조트를 건설하는 오라관광단지 개발사업에 대한 가칭 '자본검증위원회'를 구성할 것을 원희룡 제주지사에게 요청했다. "오라관광단지 동의안 부결하라" (제주=연합뉴스) 전지혜 기자 = 16일 오전 제주도의회 정문 앞에서 '행동하는 제주시민'이 기자회견을 열어 오라관광단지 환경영향평가 동의안 부결을 촉구하고 있다. 제주도의회 환경도시위원회는 오는 17일 찬반 논란이 일고 있는 오라관광단지 조성사업 환경영향평가서 협의내용 동의안을 심사할 예정이다. 2017.5.16 atoz@yna.co.kr 신 의장은 "오라관광단지 사업에 대한 도민 사회의 철저한 자본검증 요구와 환경도시위원회 심의 과정에서 지속적으로 자본검증에 대한 의견이 제시됐다"며 자본검증위원회를 통한 오라관광단지 조성사업 자본의 투명한 검증을 요구했다. 원 지사는 자본검증 문제에 대해 '오라관광단지 환경영향평가서 협의내용 동의안'에 대한 도의회 동의를 받으면, 사업승인 이전단계에서 '개발사업시행 승인신청(인허가 의제협의)'에 따른 자본조달계획과 투자계획 등 자세한 사업계획을 사업자로부터 받아 철저한 자본검증을 하겠다며, 법으로 규정된 절차에 따른 검증 의지를 밝혀왔다. 광고 그러나 신 의장은 도의회 차원의 최종 동의단계인 동의안을 처리하기 전에 자본검증을 먼저 해야 한다는 입장을 보인 것으로, 자본검증 시기를 앞당겨 전문가 등을 포함한 검증위원회를 구성해 줄 것을 공식 요청했다. 5조원 투자될 제주 오라관광단지 (제주=연합뉴스) 김호천 기자 = 버진아일랜드 국적의 JCC가 5조260억원을 투자해 복합리조트 개발을 추진하는 제주시 오라관광단지. 빨간 선 안쪽이 사업대상지다. 2015.8.12 khc@yna.co.kr 신 의장은 "도민의 뜻이 가장 중요하다"며 "도민들이 먼저 자본검증을 요구하는 만큼 제주도가 도의회의 요청을 받아들여야 할 것"이라고 강조했다. 그는 "환경도시위원회에서 환경영향평가서 협의내용 동의안을 검토하고 있지만, 자본검증에 대해 제주도민 전체가 궁금해하고 결국에 가서는 도의회 본회의에서 의원 전체의 의견을 물어야 하는 사항이기 때문에 철저한 자본검증 과정이 필요하다고 판단했다"고 밝혔다. 제주도의회 환경도시위원회(위원장 하민철)는 지난달 17일 제351회 임시회 제1차 회의를 열어 오라관광단지 환경영향평가서 협의내용 동의안을 심사보류 결정했다. 제주도의회 환도위는 4월 5일 임시회에서도 심도 있는 검토가 필요하다고 판단, 오라관광단지 환경영향평가 협의내용 동의안을 상정보류 결정한 바 있다. 오라관광단지 개발사업은 중국계 자본을 기반으로 한 JCC가 2021년까지 6조원대의 사업비를 들여 제주 최대 규모의 복합리조트를 건설하는 사업이다. 사업 추진 과정에서 환경·경관 훼손·자본검증 등 각종 논란과 절차 이행 과정에서의 잡음이 일고 있으며 지역사회에서도 의견이 엇갈려 찬반 주장이 팽팽하게 맞서고 있다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/06/12 11:22 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 21 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>"제주도의회, 오라관광단지 통과하면 낙선운동" 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 "제주도의회, 오라관광단지 통과하면 낙선운동" (제주=뉴스1) 고동명 기자					| 2017-06-12 15:38 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 12일 제주시 연동 제주도의회 정문 앞에서 제주 오라관광단지 조성을 반대하는 시민들이 손 팻말을 들고 집회를 하고 있다. 중국계 자본인 JCC㈜가 추진 중인 오라관광단지 조성사업은 제주시 오라2동 일대 357만5753㎡ 부지에 오는 2021년까지 총 사업비 6조2800억원을 투자하는 제주지역 사상 최대 규모의 개발 사업이다.2017.6.12/뉴스1 © News1 이석형 기자 제주시민 250명이 제주 사상 최대 개발사업인 오라관광단지사업을 반대하고 나섰다.'행동하는 제주시민 250인'이라는 이름을 내건 시민들은 12일 오후 도의회 정문 앞에서 기자회견을 열고 도의회 환경도시위원회는 오라관광단지 환경영향평가서 동의안을 부결하라고 촉구했다.이들은 "환도위가 동의안을 통과시킨다면 제주도 초유의 난개발 헬게이트가 열린다"며 "동의안이 통과하면 낙선운동에 돌입할 것"이라고 경고했다.더불어민주당 제주도당 도의원들을 향해 "수권 정당인 민주당 도당은 오라관광단지 원천 무효 당론을 조속히 밝히라"며 "오라단지 사업은 문재인 대통령의 생태국가 시범지역 등의 약속과 전면 배치된다"고 주장했다.이날 같은 시간 오라관광단지사업에 찬성하는 주민들도 도의회 도민의 방에서 기자회견을 예정했다가 도의회에 상정되지 않은 점 등을 고려해 취소했다.도의회 환도위는 이날부터 시작되는 제352회 제1차 정례회에 해당 안건을 상정하지 않고 자본 검증이 끝난 뒤에 심사하겠다는 계획이다.환도위는 지난달 17일 오라관광단지 환경영향평가 동의안을 심사해 결론을 내리지 못하고 심사보류한 바 있다.중국계 자본인 JCC가 추진하는 오라관광단지는 2021년까지 6조2800억원을 들여 제주시 오라2동 일대 350만㎡ 부지에 컨벤션센터·호텔·분양형 콘도·면세백화점·실내형 테마·워터파크·골프장 등을 조성하는 사업이다.단일 개발사업으로는 제주 역사상 최대 규모다. 개발 예정지가 한라산국립공원 밑 해발 350~580m에 위치해 환경훼손과 자본 투명성 등을 놓고 논란이 되고 있다. kdm@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도관광협회장배 아마추어 친선골프대회 개최 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회장배 아마추어 친선골프대회 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회장배 아마추어 친선골프대회 개최 기자명 고병수 기자 입력 2017.06.22 02:54 수정 2017.06.22 03:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주도와 제주특별자치도관광협회(회장 김영진)는 21, 22일 동안 ‘2017 상반기 제주특별자치도관광협회장배 아마추어 친선골프대회’가 도내 2개 골프장에서 동시 개최되고 있다고 밝혔다.올해로 7년째를 맞는 대회는 제주 골프관광의 저변 확대와 고부가가치레저스포츠 관광객 유치 활성화를 위해 매년 상·하반기 개최되는 대회로 전국 450여명의 아마추어 골퍼들이 참가한 가운데 성황리에 진행됐다.이날 참가자들은 제주공항에서 오라CC, 에버리스GC로 각각 이동해 18홀 대회 라운딩을 즐겼으며 대회 이후 만찬과 함께 진행된 시상식 및 경품이벤트에서는 호텔, 골프장, 렌트카, 잠수함 이용권 등 다양하고 푸짐한 경품도 제공되어 참가자들의 뜨거운 호응을 얻었다. 도관광협회 김영진 회장은 "도내 우수한 골프 인프라 및 골프대회를 활용한 고품격 관광상품 개발, 동호회 등 마니아층을 타깃으로 한 공격적인 마케팅을 통해 골프관광객 유치에 어려움을 겪고 있는 도내 골프장업계 경영 활성화에 기여하고 제주관광 질적성장에 보탬이 되도록 적극적으로 노력해 나갈 것"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[일일 금융동향]지역 경기별 온도차 나타나 · 제주도 관광수입 감소 · 주택시작 양극화(금융/증권)-NSP통신 반복내용 건너뛰기(skip to main content) Korea Business News Agency - NSP통신 11th(2022.10.11 FILE)클럽NSPNSP구글뉴스NSP트위터NSP페이스북 NSP통신 뉴스전국NSP리포트소상공인포토/영상 메뉴검색기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회대통령실/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰탐방인사부고동정신상품/리뷰신상품체험리뷰해명/반론정치경제사회전국문화연예 기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회청와대/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰|탐방|인사부고|동정신상품/리뷰신상품체험리뷰해명/반론정치|경제|사회전국|문화|연예검색 search 검색 금융증권보험/카드 ▶ NSP통신 인천, 경기북부 등 전국지사 모집   한국의 경제뉴스통신사 - NSP통신 인쇄 확대 축소[일일 금융동향]지역 경기별 온도차 나타나 · 제주도 관광수입 감소 · 주택시작 양극화2017-06-26 19:18, 오금석 기자 [XML:KR:1201:금융] #일일 금융동향 #주택시장 #사드 #경기 #경제 (서울=NSP통신) 오금석 기자 = 26일 주목해야할 금융·경제정보= 한국경제가 수출과 투자를 중심으로 회복세를 보이는 가운데 지역별 경기에서 온도차가 나타났다. 특히 수도권과 충청·강원권 경기가 개선되는 흐름을 보였다. 중국의 사드(고고도미사일방어체계·THAAD) 보복 영향으로 중국인 관광객 수가 급감하면서 제주도의 관광수입이 2147억원이나 감소했다. 올 상반기 주택시장이 지난해에 이어 수도권과 지방의 집값 상승률 차이가 이어지고 있다. 수도권은 재건축·재개발 등 도심 재정비 사업이 매매가격을 올린 것으로 분석됐다.◆한국경제가 수출과 투자를 중심으로 회복세를 보이는 가운데 지역별 경기에서 온도차가 나타났다. 한은 지역경제보고서에 따르면 올해 2분기(4∼6월) 수도권과 강원권은 경기가 개선되는 흐름이 이어졌고 충청권과 동남권(부산·울산·경남)은 지난 1분기보다 개선됐다. 반면 대경권(대구·경북)과 호남권, 제주권은 보합을 나타냈다. 한은은 앞으로도 지역 경기는 수도권, 충청권, 동남권 등에서 수출과 소비를 중심으로 개선 흐름이 이어질 것이라고 전망했다.◆중국의 사드 보복 영향으로 제주도의 관광수입이 2147억원 감소했다. 한은의 지역경제보고서를 보면 제주도를 찾은 중국인 관광객 수는 1년 전 같은 기간보다 88.6%나 줄었다. 3월 중순부터 단체관광 전면 중단, 크루즈 선박의 제주 운항 취소 등으로 급격하게 줄어든 것이다. 더불어 강원도 일부 지역과 인천 지역도 타격을 입었다. 강원지역의 경우 외국인 관광객의 60% 정도가 들르는 남이섬의 피해가 두드러졌다. 이번 사태를 계기로 지역 경제의 체질 개선 필요성이 커지고 있다.◆상반기 수도권의 집값 상승폭이 지방의 두 배가 넘었다. 집값 상승 원인으로는 재건축과 재개발 사업이 지목됐다. 상반기 주택시장은 수도권과 지방의 양극화가 이어진 것으로 평가됐다. 상반기 전국 주택매매가격은 지난해 말 대비 0.3% 상승했다. 이 가운데 수도권이 지난해 말 대비 0.5% 상승했고 지방은 0.2% 오르는데 그쳤다. 특히 2015년 이후 서울지역의 아파트 가격 상승세가 두드러진 것으로 나타났다. 전문가들은 올해 상반기 주택매매가격 상승요인으로 재건축, 재개발 등 도심 재정비사업(29.8%)을 주된 이유로 꼽았다. 만약 하반기에 매매가격이 하락한다면 △가계부채 관리방안 등 정책요인 △주택입주 물량 증가 △대출금리 상승 등이 이유로 꼽혔다. NSP통신/NSP TV 오금석 기자, keum0818@nspna.com저작권자ⓒ 한국의 경제뉴스통신사 NSP통신·NSP TV. 무단전재-재배포 금지. 카카오톡 카카오스토리 밴드 페이스북 트위터 네이버블로그 프린트 오늘의 주요뉴스 한은 "9월 경상수지 흑자 가능성↑…월별 변동성 클 것" 외환보유액 '금융위기 후 최대폭 감소'…197억달러↓ 한은, "외식물가 오름세 지속 확대"...소비자물가, 상당기간 5~6%대 높은 오름세 전망 저축은행·보험사 부동산 PF 대출 5년 새 24조6천억원 증가 주요 금융회사, 기재부·금융위·금감원 출신 114명 대거 포진   네오위즈, 넷플릭스와 '고양이와 스프' 퍼블리싱 계약 체결 토스플레이스 오프라인 결제단말기 시범 서비스 시작 전주시·행안부, 21~22일 '지구사랑 두바퀴 대축제' 개최 대우건설, 우즈베키스탄 민관합동사업 공동추친 케이뱅크, 아파트 신규 구입자금 대출 선봬…'최저 연 3.18%' 테마기획 금융업계ESG NSP리포트더보기 NSP통신 전국지사모집 more 한국의 경제뉴스통신사인 NSP통신이 1월 1일부터 전국 지역 지사를 모집합니다. 모집지역 인천, 경기동부, 경기북부, 대전, 광주, 강원, 충북, 전북, 울산, 경남, 경남서부, 제주 등 모집문의 [상세보기] 070-7599-1620 okyes@nspna.com, 지원서(hwp) 회사소개 회사연혁 저작권규약 광고 및 컨텐츠제휴문의 고충처리 채용안내 전국취재본부및지사 연락처 구글뉴스 트위터 페이스북 (07236) 서울시 영등포구 국회대로750 금산빌딩 3층 | TEL: (02)3272-2140~2 | FAX: (02)3272-2144 3F 750, Gukhoe-daero, Yeongdeungpo-gu, Seoul, 07236 Republic of Korea | TEL: +82-2-3272-2140~2 | FAX: +82-2-3272-2144 등록번호: 문화 나 00018호 | 등록일자: 2011.6. 29 | 발행인: 김정태 | 편집인: 류수운 | 고충처리인: 강은태 NSP통신·NSP TV의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재.복사.배포를 금합니다. ⓒ (주)NSP뉴스통신사. All rights reserved. ❝ NSP통신은 한국의 경제뉴스통신사입니다. 클린미디어운동-NSP통신은 보도자료 전송서비스를 하지 않습니다. ❞ Capture mode Home Top</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 사업 자본검증 우선 시행 &lt; 경제 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 오라관광단지 사업 자본검증 우선 시행 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 경제 제주도, 오라관광단지 사업 자본검증 우선 시행 기자명 고병수 기자 입력 2017.06.13 11:48 수정 2017.06.13 13:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도의회 월권 소지, 道 요청사항 수용...법적 근거없는 자본검증위구성 우려외투기업 투자힘든 제주만들 공산 커...지속가능 발전 제주 위기 봉착 ▲ 제주오라관광단지 사업부지 모습. (제주=국제뉴스) 고병수 기자 = 원희룡 도정이 제주도의회의 공식적인 요청을 받아들여 제주 오라관광단지에 대해 투명하고 철저한 자본검증을 우선 시행하겠다고 13일 밝혔다.이에 道는 '자본검증위원회'를 구성하고 자본검증을 철저히 검증하겠다고 강조했다.이 같은 제주도의회의 요청은 제주도정의 내부절차를 무시한 지방의회의 월권으로 비쳐질 소지가 크다는 지적이 나오고 있다.실제 이승찬 관광국장에 대해 기자들의 질문이 쏟아졌다."지방의회 월권", "절차무시", "법치가 아니고 인치"라는 기자들의 지적에 이승찬 국장은 "도민사회 의문과 우려를 해소하고 제주도의회 요청사항을 받아들여 이 같은 결정을 내렸고 절차는 무시하는 것은 아니라"고 주장했다."타 지자체에도 같은 사례가 있는냐"는 질문에는 "검토를 안했다"고 말했다.또한 도의회 도정질문 석상에서 원희룡 지사가 "환경평가 동의안 처리 후 철저한 자본검증을 약속한다"는 공식적인 발언에도 도의회가 문서를 통해 이를 무시하고 원 지사의 행정에 대한 지도력과 수평적 권위에 도전하는 무소불위의 월권으로 비쳐질 수 있다는 것, 道는 '자본검증위원회' 구성에 대한 구체적인 내용들은 아직 마련되지 않았고 금융․법률 ․회계․경제 등 여러 분야의  전문가를 검토해 구성해 나가고 '자본검증위원회'를 통해서 자본검증에 필요한 검증자료 목록, 검증방법 등을 세부적으로  정하고 위원회의 최종적인 검증결과를 도의회에 제출할 계획이다.오라관광단지 개발사업은 5조2천억원의 사업비(사업시행자 JCC주식회사 대표 왕핑후아)가 투자되고 있는 도내 최대 규모의 개발사업이다. 오라동 열안지오름을 포함한 357만5천 평방미터 부지에 관광호텔 2300실, 휴양콘도 1270실, 명품빌리지 등 상업 시설과 휴양문화시설인 생태전시관, 워터파크와 18홀의 골프장 등이 계획되어 있다.또한 지난 2015년 7월 환경영향평가 준비서 심의를 시작으로 경관 ․ 교통 ․ 재해 ․ 도시건축 ․ 환경영향평가 등 위원회 심의절차를 거쳤으며 도민의견을 수렴하기 위해 사회협약위원회와   도의회에서 주관해 정책 토론회가 열렸고  약 2년여에 걸쳐 행정절차가 진행되고 있다.관계자는 "전문가들로 구성된 '자본검증위원회'의  철저한 자본검증을 통하여 투자자본의 적격 여부와 자본조달 능력 등 사업자가 제시한 내용의 사실 여부와 실현  가능성 등에 대해 의문이 해소될 수 있기를 기대한다"고 말했다.한편 이번 사례에 따라 앞으로 외국인투자 유치가 더욱 힘들어 질 전망이다. 타 지자체의 규제완화를 통한 외투자본유치와 상반되는 제주도와 제주도의회의 행보에 일부 도민들의 우려의 시각도 감지되고 있다.이에 지속가능한 발전을 위한 제주를 만들기에 더욱 힘들어지고 양질의 일자리를 찾는 젊은이들의 육지부로의 엑소더스(대탈출) 대이동이 불가피하게 될 소지가 커지고 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 올해 누적 관광객, 2013년 이후 첫 감소 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - OBS경인TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 기사검색 검색 홈 뉴스O 경인PICK 뉴스 브런치 분야별 다시보기 제보 편성표 채널안내 OBS 실시간 뉴스 [경인투데이] 전체 보기 헤드라인 신규 확진 1만 5천 명대…오늘부터 개량 백신 접종 윤 대통령 "담대한 구상 유효…어떤 우려도 정당화 못해" 주호영 "북 도발, 민주당 정권이 대응 제대로 안 한 결과" 민주당 "여가부, 폐지 아닌 확대 필요"…정부조직개편안에 공식 반대 정청래, 'OBS 단독' 언급…"자위대 '수륙기동단' 훈련 참여 따져봐야" 한일 국장급 협의…강제징용 해법논의 주목 경기도 누림통장 '중증 장애 청년에게 희망을' 경기도, 중소기업·도민에 지식재산 서비스 강화 추진 facebook twitter youtube 본문영역 이전 기사보기 다음 기사보기 제주도 올해 누적 관광객, 2013년 이후 첫 감소 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 제주도 올해 누적 관광객, 2013년 이후 첫 감소 기자명 권현 입력 2017.06.10 12:17 본문 글씨 줄이기 본문 글씨 키우기 바로가기 다른 공유 찾기 공유하기 페이스북 페이스북(으)로 기사보내기 트위터 트위터(으)로 기사보내기 카카오스토리 카카오스토리(으)로 기사보내기 카카오톡 카카오톡(으)로 기사보내기 네이버블로그 네이버블로그(으)로 기사보내기 URL복사 URL복사(으)로 기사보내기 닫기 올해 제주도 관광객 수가 2013년 이후 처음 감소했습니다.제주도관광협회에 따르면 지난 8일까지 제주를 찾은 누적 관광객은 639만8천 명으로 지난해보다 1.7% 줄었고, 외국인 관광객은 74만144명으로 45.8% 급감했습니다.이같은 현상은 중국 정부가 사드 배치 보복으로 한국여행 금지령을 내리면서 제주 외국 관광객의 80% 이상을 차지하는 중국인들이 크게 줄었기 때문으로 풀이됩니다. OBS 뉴스는 언제나 여러분의 제보를 기다립니다. ▶ 전화 032-670-5555 ▶ 이메일 jebo@obs.co.kr ▶ 카카오톡 @OBS제보 권현 기자 14060413@obs.co.kr 기자의 다른 기사 저작권자 © OBS경인TV 무단전재 및 재배포 금지 유튜브 1기 신도시 대표주자 일산, 재건축은 언제?... 이용우 의원이 말하는 '신도시 특별법'이 제정돼야 하는 이유 [인사이드 스토리] 전설의 '서울대 경제학부 82학번'... 카카오뱅크 대표였던 이용우가 '스톡옵션 52만 주'를 포기하고 정치에 뛰어들게 된 사연은? [인사이드 스토리] "장애인? 상관 없어, 나랑 같이 일 하는 것만 아니면"... 충격적인 '장애인 일자리'의 실태 [인사이드 스토리] 태어난 지 1년이 채 안된 아이에게 찾아온 '소아마비'... 평생 하반신을 쓰지 못한 그가 장애를 극복한 이야기 [인사이드 스토리] 추천인기 한 뼘 더 1 [단독] '일본해 수정' 미, 해상자위대도 "일본 해군" 호칭 2 정조대왕 능행차 마지막 날…인파 북적 3 4km 떨어진 초등학교…십수 년째 학교 설립 제자리 4 한국은행 기준금리 0.5%p 인상 나서나 5 북 탄도미사일 2발 발사…'강원도 문천' 이례적 6 러시아 보급로 '크림대교' 폭발…보복 조치할까 1 [한 뼘 더] 지역 막걸리도 "고급화"…소비자는 "값싼 술" 2 [한 뼘 더1] [단독] 인천구치소, 수용자 사망 사건 축소·은폐 의혹 3 [한 뼘 더2] [단독] '인권·관리 사각지대' 인천구치소 4 [한 뼘 더] 기업들 "최악의 경제위기 해법은 고객 경험" 5 [한 뼘 더] 쟁의권 보장 vs 재산권 침해…'노란봉투법' 쟁점 6 [한 뼘 더1] 지역화폐, '민생경제 효자' 역할 톡톡…"축소 아닌 확대해야" 주요 뉴스 윤 대통령 "담대한 구상 유효…어떤 우려도 정당화 못해" 한일 국장급 협의…강제징용 해법논의 주목 주호영 "북 도발, 민주당 정권이 대응 제대로 안 한 결과" 민주당 "여가부, 폐지 아닌 확대 필요"…정부조직개편안에 공식 반대 신규 확진 1만 5천 명대…오늘부터 개량 백신 접종 하단영역 하단메뉴 OBS소개 광고 및 제휴 영상판매 이용약관 개인정보처리방침 청소년보호정책 시청자센터 관련 사이트 OBSW뉴스 OBS W 매체정보 OBS경인TV 대표이사 : 김학균 방송편성책임자 : 이선희 개인정보관리책임자 : 신성호 청소년보호책임자 : 신성호 경기도 부천시 오정로 233 (우)14442 전화 : 032-670-5000 팩스 : 032-671-2096 사업자등록번호 : 130-86-22783 OBS경인TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 OBS경인TV. All rights reserved. 위로 전체메뉴 전체기사 정치 전체 대통령실 국회/정당 외교/국방 북한 행정 정치일반 경제 전체 생활경제 금융/증권 부동산 산업/기업 국제경제 경제일반 사회 전체 법원검찰 사건사고 교육 인권/복지 노동 생활건강 날씨 사회일반 경인코로나현황 문화 국제 스포츠 전체 야구 축구 농구/배구 골프 일반 렌즈로 보는 세상 드론뉴스 경인세상 전체 경기 인천 경인동정 즐거운 경인 연예 건강 날씨 IT/과학 다시보기 생활 OBS플러스 전체 드라마 독특한 연예뉴스 가요 영화 연예가 화제 방송 인터뷰 공연 포토 트래블 전체 주요뉴스 여행사 항공사 국내여행 비즈플러스 기획취재 여행톡톡 MORE 포커스CEO인터뷰 전기홍기자의 감성여행 알려줘, 여행 BEST추천여행 TEST 기동취재 뉴스디거 전체 간추린 오늘 접속각 인사이드 스토리 VOD 경인팩트체크 국민공감 2022 뉴스 브런치 전체 인섬 뉴스 클로징 + 더하기 인터뷰 + 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>'갑자기 히어로즈' 러블리즈와 제주도 새 관광코스 개발 '먹방+체험' 기사최종편집일 2022-10-11 12:44 엑스포츠뉴스 검색 메뉴 랭킹 연예 스포츠 야구 축구 e스포츠 기획 포토 영상 검색 메뉴 로그인 랭킹 연예 스포츠 야구 축구 e스포츠 기획 포토 영상 연예 국내연예 가요 방송/TV 영화 드라마 해외연예 스포츠 야구 축구 농구 배구 골프 스포츠종합 e스포츠/게임 e스포츠 모바일게임 온라인게임 콘솔게임 게임일반 회사소개 이용약관 개인정보취급방침 제휴/광고/사진구입 문의 채용안내 공지사항 연예 '갑자기 히어로즈' 러블리즈와 제주도 새 관광코스 개발 '먹방+체험' 기사입력 2017.06.03 10:13 공유 박소현 기자 [엑스포츠뉴스 박소현 기자] JTBC '갑자기 히어로즈' 멤버들과 러블리즈 케이, 예인이 제주도 새 관광코스 개발에 나선다. 3일 방송하는 '갑자기 히어로즈'에는 러블리즈 케이와 예인이 각각 두 팀으로 나눠 제주도의 숨은 먹거리와 체험거리를 탐방한다. 먼저 '창모 투어'라는 플래카들르 내건 정준하, KCM, 케이 팀은 제주도의 토속적인 느낌을그대로 담아낸 레스토랑과 스릴 넘치는 해양레포츠를 체험했다. 케이는 제주도 전통 옹기에서 발효시킨 특별한 후식을 맛본 후 떠나야 할 시간에도 숟가락을 놓지 않는 먹방을 선보인다. 이재훈, 강타, 주우재, 예인은 승마체험과 짚와이어 체험에 나섰다. 히어로즈의 막내 주우재는 형들의 관심이 예인에게 몰리자 서운함과 질투심을 드러내 웃음을 자아냈다. 그러자 맏형 이재훈은 짚와이어 체험 중 "형이 (우재를) 지켜줄게"라며 훈훈하게 막내를 다독인다. '갑자기 히어로즈'는 3일 오후 5시 20분 방송한다. sohyunpark@xportsnews.com /사진=JTBC 박소현 기자 sohyunpark@xportsnews.com ⓒ 엑스포츠뉴스 (https://www.xportsnews.com) 무단전재 및 재배포 금지 / 기사제보 및 보도자료 press@xportsnews.com ▶ '이영하와 이혼' 선우은숙, 재혼 발표…상대 누군가 보니 ▶ 안현모 "♥라이머와 정리했었다…" 솔직 고백 후 근황 ▶ "대구시민 우롱"…전국노래자랑, 터질 게 터졌나 '갑론을박' ▶ '나는솔로' 영자, 여행 후폭풍…영식과 결별설→줄줄이 손절 ▶ 김창환, 미스코리아 딸 자랑…정해인과 MC까지? 기사추천 0 지금 사람들이 많이보는 뉴스 '내년 결혼' 한정민♥조예영, 벌써 살림 합치나…"이사 준비" 신화 신혜성, 도난차량서 음주측정 거부…현행범 체포 공효진♥케빈오, 부부 된다…오늘(11일) 美서 결혼식 박하선 딸 "살려주세요" 도움 요청…"외국이면 끌려가" '한영♥' 박군 "연예계 은퇴 생각…" 솔직 고백 시선집중 공효진♥케빈오, 부부 된다…오늘(11일) 美서 결혼식 '이영하와 이혼' 선우은숙, 재혼 발표…상대 누군가 보니 '내년 결혼' 한정민♥조예영, 벌써 살림 합치나…"이사 준비" '자산 50억' 10기 정숙, 명품 선물들 언박싱…어마어마 안현모 "♥라이머와 정리했었다…" 솔직 고백 후 근황 "대구시민 우롱"…전국노래자랑, 터질 게 터졌나 '갑론을박' 공효진♥케빈오, 부부 된다…오늘(11일) 美서 결혼식 '이영하와 이혼' 선우은숙, 재혼 발표…상대 누군가 보니 '내년 결혼' 한정민♥조예영, 벌써 살림 합치나…"이사 준비" '자산 50억' 10기 정숙, 명품 선물들 언박싱…어마어마 안현모 "♥라이머와 정리했었다…" 솔직 고백 후 근황 "대구시민 우롱"…전국노래자랑, 터질 게 터졌나 '갑론을박' 실시간 인기 기사 더보기 연예 스포츠 게임 1 안현모 "결혼 전 ♥라이머와 정리했었다…없던 일 하자고" (차차차)[전일야화] 2 공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼…"비공개 스몰웨딩" [공식입장] 3 '나는솔로' 영자, 필리핀 여행 후폭풍…영식과 결별설→출연자들 손절 4 신화 신혜성, 도난차량서 음주측정 거부…현행범 체포 5 '자산 50억' 10기 정숙, 명품 선물들 언박싱…어마어마 6 공효진♥케빈오, 부부 된다…오늘(11일) 美서 결혼식 7 '이영하와 이혼' 선우은숙, 재혼 발표…상대 누군가 보니 8 안영미, 이혼설 해명 후…♥남편과 미국서 재회+식욕까지 폭발 9 '내년 결혼' 한정민♥조예영, 벌써 살림 합치나…"이사 준비" 10 '복귀' 홍진영, 머리가 젖어도 인형미모…'물미역 샷' 1 '94분' 이강인, 기회 창출 양 팀 최다...팀 내 평점 3위 2 '이강인 선발' 마요르카, 엘체 원정 선발 명단 발표 [라리가 8R 라인업] 3 'PK 실축→성공→뺨따귀→퇴장'...이강인 파트너의 '운수 좋은 날' 4 '무리키 동점골→퇴장' 마요르카, '최하위' 엘체와 1-1 무 [라리가 8R 리뷰] 5 박태환 넘어선 황선우, 전국체전 200m 새 역사...이틀 연속 金 수확 6 김하성의 첫 NLDS, 유리아스-커쇼 철벽 원투펀치 만난다 7 '왕좌 도전' 울산, 동해안 더비 잡으면 '17년 한' 푼다 [K리그1 36R 프리뷰] 8 폭우+정전 '환장' 콜라보...마요르카 엘체 원정 킥오프 30분 연기 9 변성환호, U17 아시안컵 본선 진출 확정 10 영원히 함께 할게요...토트넘, 故 벤트로네 코치 위해 '상록수' 심었다 1 [롤드컵] 1승 간절했던 '피넛' 한왕호 "RNG전 밴픽, 코인 없는 조합이었다" 2 '도란' 최현준 "RNG전, 상대 분석 부족했다…우승 후보 부담감 없어" [인터뷰] 3 [롤드컵] 포기하지 않겠다는 '오너' 문현준 "남은 경기서 T1 저력 보여주겠다" 4 [롤드컵] DRX, 완벽한 경기력으로 TES 압살…1승 1패 달성 5 [롤드컵] 패배 후 다시 시작한 '바이퍼' 박도현 "T1전 지고 나니 내려놓으니 편안해" 6 [롤드컵] LCK 연패 끝!…젠지, 100T 잡고 '첫 승 신고' 7 [롤드컵] 강해도 너무 강한 EDG, 프나틱 제압하고 '2승 달성' 8 [롤드컵] '스카웃' 이예찬 "T1전 패배 후 메타 이야기 많이 나눠…남은 3경기 다 이기겠다" 9 [롤드컵] T1, 전 라인 압도하며 C9 격파…2승 1패 달성 10 [롤드컵] 바텀은 재미 없었다는 '베릴' 조건희 "로그 특성 알아…다음엔 꼭 이길 것" 엑's 이슈 더보기 선우은숙의 4살 연하남…'재혼' 유영재 아나운서 누구? [엑's 이슈] 에이티즈 우영, '스맨파' 바타 표절 의혹 저격?…안무 원작자도 동참 [엑's 이슈] [단독] 부상으로 실려갈지라도...홍자의 열정② 안테나 측 "유재석, 응원 편지만 부탁"…팬 선물 거절에 갑론을박 [엑's 이슈] 아이돌 출신 배우 스토킹→경찰관 폭행…30대 남성 구속 송치 주간 인기 기사 더보기 연예 스포츠 게임 1 신지, "김종민과 10년 비밀연애 끝…상견례 마쳐" 언급 후 살 쏙 빠진 근황 2 "대구시민 우롱"…전국노래자랑, 터질 게 터졌나 '갑론을박' 3 김원준 "비행기 추락해…의식 회복 후 중환자실로" 4 이재윤, 11월 결혼 발표…상대 누군가 보니 5 '진화♥' 함소원, 대박 난 근황…네티즌 축하 쇄도 6 박하선 딸 "살려주세요" 도움 요청…"외국이면 끌려가" 7 박진희 "알코올성 치매 증상"…신애라 "심각한 상황" 8 '권오중♥' 엄윤경, 58세 맞아?…비키니 입고 '몸매 자랑' 9 이소라, 안면골절 사고 "콧대 없어져"…사진 공개 10 '한영♥' 박군 "연예계 은퇴 생각…" 솔직 고백 1 LG 고우석, 절친 이정후 女동생과 결혼..."멋진 남편 되도록 노력할 것" 2 생전 마지막 인터뷰서 손흥민 언급...손흥민은 그에게 특별했다 3 "오심이 맞다" 베이징 쇼트트랙 편파판정 언급한 최용구 심판, 1년 자격정지 징계 4 나폴리는 '김민재 홀릭'...일식당 방문도 '대서특필' 5 '화려한 PS 데뷔' 김하성, 멀티히트+3출루 펄펄…SD 기선제압 성공 6 [오피셜] 나폴리 비상...'김민재 파트너' 허벅지 근육 파열 7 '손케 듀오 투톱?' 토트넘 프랑크푸르트 원정 예상 선발 라인업 8 이탈리아 안 가...'징역 9년형' 호비뉴의 '배째기' 9 '최강야구' 질문에 진지한 오재원 "투수로 도전해보고 싶다" 10 형이 거기서 왜 나와?...맨유 팬, 35세 '베테랑' 깜짝 활약에 감탄 1 메타크래프트, 여성향 웹소설 플랫폼 '몽글몽글' 베타서비스 시작 2 [롤드컵] 1승 간절했던 '피넛' 한왕호 "RNG전 밴픽, 코인 없는 조합이었다" 3 [롤드컵] 'LCK 1시드가 무너졌다' RNG, 웨이 앞세워 '젠지 압살' 4 [롤드컵] DFM, 기세 제대로 탔다…RNG 잡고 1세트 승리 5 '도란' 최현준 "RNG전, 상대 분석 부족했다…우승 후보 부담감 없어" [인터뷰] 6 [롤드컵] 포기하지 않겠다는 '오너' 문현준 "남은 경기서 T1 저력 보여주겠다" 7 ‘김지성 VS 유영진’…‘ASL 시즌14’ 결승, 내일(8일) 열린다 8 [롤드컵] '담원 기아도 졌다' 징동, 힘든 경기 난전으로 극복…'LCK 패배의 날' 9 [롤드컵] '페이커의 화려한 아칼리' T1, 누워도 이긴다…'EDG 격파' 10 [롤드컵] 'G2 쉬운데?!' 담원 기아, 라인전부터 박살…롤드컵 첫 승 화보 뉴진스 민지-하니, 무결점 비주얼 조합 르세라핌 사쿠라-카즈하, 청순한 화이트 여신들 회사소개 이용약관 개인정보취급방침 제휴/광고/사진구입 문의 채용안내 공지사항 서울시 강남구 테헤란로 8길 11-4 신도빌딩 7층 Tel: 02-3448-5940-1  |  Fax: 02-3448-5942 등록번호: 서울시 아 00592 |  등록일자: 2008년 6월 4일 발행일자: 2008년 6월 4일 |  발행인·편집인 : 우상균 청소년보호책임자 : 이호준 Copyright ⓒ xportsmedia, All rights reserved. 통합검색</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 이달의 베스트관광인으로 '제주토박이' 김은례 과장 선정 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:39 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 이달의 베스트관광인으로 '제주토박이' 김은례 과장 선정 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 이달의 베스트관광인으로 '제주토박이' 김은례 과장 선정 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2017.06.09 11:40 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 시상자 김영진 제주도 관광협회회장(왼쪽)과 수상자 김은례 제주토박이 과장(오른쪽) ⓒ헤드라인제주 제주특별자치도관광협회(회장 김영진)는 지난 8일 라마다프라자제주호텔 라마다볼룸에서 '칭찬합시다. 이달의 베스트 관광인' 으로 주식회사 제주토박이 김은례 과장을 선정하고 선정패와 친절 키움 꽃 화분을 전달 했다.한편, 도 관광협회 관계자는 "앞으로도 제주관광 친절 서비스에 모범이 되는 베스트 관광인을 매월 선정, 수범 사례를 공유하고 이를 계기로 제주관광 서비스 제공의 최일선에서 일익을 담당하는 종사자들의 친절 및 서비스 마인드를 한단계 높혀나감으로써 '관광으로 만들어가는 희망찬 제주'를 만들기에 앞장 서 나갈것이다"고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광객, 2013년 이후 첫 감소 '중국 금한령 여파' 검색 2022-10-11 화요일 홈 경제 경제일반 산업 자동차/항공 조선/철강 화학/에너지 제약/바이오 중기 금융 증권 IT 전자 게임 유통 부동산 칼럼 정치 사회 연예 최신 영화 연예 스포츠 스포츠종합 축구 야구 농구 골프 여행 문화 기업PR 제주도 관광객, 2013년 이후 첫 감소 '중국 금한령 여파' 2017-06-10 15:35:00 | 온라인뉴스팀 기자 | office@mediapen.com 페이스북 트위터 카카오톡 프린트 가 + 가 - [미디어펜=온라인뉴스팀]제주도 관광객 수가 중국 정부의 금한령 여파로 지난 2013년 이후 처음으로 감소세를 보인 것으로 알려졌다.10일 제주도관광협회 소식을 인용한 연합뉴스 보도에 따르면 지난 8일까지 올해 제주를 찾은 누적관광객 수는 639만8648명으로 작년 같은 기간 651만2577명에 비해 1.7％(11만3929명) 감소했다.특히 외국인 관광객 수는 작년 동기간 136만5278명과 비교해 54.2%에 불과한 74만144명인 것으로 확인됐다.중국을 오가는 항공편이 80% 이상인 제주공항 국제선의 경우, 사드(THADD·고고도 미사일 방어체계) 배치에 따른 중국 정부의 금한령 조치 시행 이후 지난 4~5월 2달간 (전년 동기 3319편과 비교해) 1104편만 운항되어 작년에 비해 1/3로 줄었다.지난 2013년 제주도를 찾는 연간 관광객이 1000만 명을 돌파한 바 있다. 그 이후로 연간 누적관광객이 감소세를 보인 것은 올해가 처음이다. ▲ 제주도 관광객, 2013년 이후 첫 감소 '중국 금한령 여파'./사진=연합뉴스 [미디어펜=온라인뉴스팀] ▶다른기사보기 &lt;저작권자 © 미디어펜 무단전재 및 재배포금지&gt; 회사소개 연혁 광고·제휴문의 청소년보호정책 이메일무단수집거부 인터넷신문 ( 윤리강령 | 심의규정 ) 서울특별시 종로구 새문안로3길 30 세종로대우빌딩 복합동 508호 전화번호 : 02)6241-7700 팩스 : 02)6241-7708 정기간행물ㆍ등록번호 : 서울 아 00574 등록일.발행일 2008.5.8 발행인 : 이의춘 편집인·편집국장 : 김태균 청소년보호책임자:김사성 Copyright © 2013 미디어펜. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 관광객들 입맛 사로잡은 제주도 해물탕 별미 &lt; 보도자료 &lt; 기사본문 - 디트NEWS24 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 칼럼 디트TV 충남 naver-tv youtube facebook 로그인 검색버튼 기사검색 검색 본문영역 현재위치 홈 보도자료 제주도 관광객들 입맛 사로잡은 제주도 해물탕 별미 이전 기사보기 다음 기사보기 기자명 박길수 기자 입력 2017.06.04 09:50 댓글 0 SNS 기사보내기 기사저장 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 우리나라를 대표하는 국제적 관광지 중 한 곳을 꼽으라면 단연 제주도를 말할 수 있다. 청정 자연과 아름다운 경관을 자랑하는 곳, 수많은 기암괴석이 절경을 이루는 곳, 웅장한 한라산과 푸른 바다가 매력적인 곳으로 우리나라만이 아니라 전 세계 관광객들의 발걸음도 불러 모으고 있다.전 세계적으로 인기가 높은 관광지인 만큼 공항 근처에 맛집이 많이 있는데, 세계 여러 나라 사람들의 입맛을 충족시키기 위한 여러 요리들이 있어 관광 만족도를 더욱 높인다.그 중에서도 섬 지역 특유의 해물요리가 높은 인기를 자랑한다. 실제로 제주도만의 특별한 해산물을 맛볼 수 있어 국내외에서 호평을 얻고 있다.제주도 본연의 해산물 별미를 맛보고 싶다면 제주시 외도1동 제주공항근처맛집인 ‘큰물 살아있는 해물탕’을 방문해보자. 관광지 맛집으로 입소문이 난 만큼 푸짐한 양과 뛰어난 맛, 높은 신선도를 자랑한다. 이호해변맛집인 업체의 주 메뉴는 가게 이름과 같은 이름을 가진 큰물해물탕으로 국내산 해산물들이 가득 들어간다. 큼지막한 살아있는 문어와 전복, 뿔소라, 대합, 키조개 등 갖가지 해산물이 푸짐하게 담겨 있어 엄청난 비주얼을 자랑하는 것이 포인트다.맛은 당일 공수한 재료만을 취급하는 만큼 뛰어난 맛을 자랑한다. 업체 대표가 살아있는 문어를 눈 앞에서 넣어 익힌 후 먹기 좋게 손질해주어 보는 재미에 먹기 편한 간편함까지 갖춘 것도 주목할 부분이다. 얼큰한 맛을 자랑하는 해물탕 국물은 깊고 진한 풍미가 단연 돋보인다. 게다가 해물탕과 함께 옥돔구이와 전복장, 그리고 명품 제주산 고사리 나물이 밑반찬으로 나오는 점은 섬의 인심을 엿볼 수 있다.이 외에 문어뚝배기와 전복뚝배기, 고등어구이, 전복구이, 전복 돌솥밥도 주문할 수 있어 고객이 선택할 수 있는 폭을 넓히고 있으며, 밑반찬으로 나오는 나물은 물론 김치도 직접 담근다고 하니 어느 하나 소홀하지 않은 모습을 엿볼 수 있다.업체는 “가족끼리 운영함으로써 맛은 물론이고 넉넉하고 푸짐한 인심을 자랑해 높은 고객 만족도를 얻고 있다. 제주공항 근처에 자리한 만큼 이후 일정에도 여유를 가질 수 있는 것도 장점이다”라고 전했다. 박길수 기자 bluysky2002@hanmail.net 기자의 다른기사 저작권자 © 디트NEWS24 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 추천뉴스 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 도로 위 달리는 기차 ‘트램’...안전대책 미비 축산물품질평가원 '특공 취지' 역행... 절반이 매도·임대 행렬 한화이글스 안방마님 최재훈 후계자 찾기 3파전 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 인기기사 주간 일간 1 우려가 현실로... 세종시 70대 여성 '전동 킥보드 사고'로 사망 2 충남 공주에 본사를 둔 우석건설 부도 3 대전 서남부종합스포츠타운, 연말 그린벨트 해제 요청 4 제1회 세종시 '어울링 바이크' 투어... 10일 정상 진행한다 5 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 6 10월 둘째 주 아파트 분양일정 7 대전 용문동 1·2·3구역 ‘둔산 더샵 엘리프’ 중소기업 근로자 특별공급 8 [관점] ‘이장우·김태흠 100일’ 권위주의 리더십의 한계 9 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 10 충남도, 사립유치원 교육비 지원 중단되나 1 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 2 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 3 대전 UCLG 총회 아태지부 '네트워킹의 밤' 성료 4 제13회 대전효문화뿌리축제, 3대가 함께 어우러진 안전한 축제로 마무리 5 유성구, 2022 앙코르 실버페스티벌 대성황 6 서산시·태안군, 행안부 특별교부세 55억 확보 7 동구 정다운어르신복지관 제26회 노인의날 기념 경로잔치 8 청양군청 이희진 선수 ‘1cm 차’ 명승부 은메달 9 서산 해미읍성축제 성료···민초의 삶 구현 호평 10 서구 월평2동, 2022 선사마을 축제 성료 실시간 댓글 최신댓글 댓글많은기사 1 뭐때문에 이렇게 화가 나신건지 도통 알수가없네;; 일단 한글부터 좀 제대로 익히시고 말씀을 해주시길.. 학교폭력은 학교랑 경찰이랑 상의하세요 2 자기들이 공무원 하겠다고 민간인 신분을 잠시 내려놓은것 아닌가요? 공무원 하겠다고 하는사람들이 하라는 봉사는 안하고 일은 저질러놓고 손해배상은 나몰라라 하고 말로만 떠들어대고 책임감도없고 일하기는 싫고 탁상 행정은 먼가요 그러고 일반인이 관련 법 일일이 찻자서 대응 하면 괄련 법령이 삭제(소멸) 되는걸 모르세요 발령 받아서 도망가면 끝 3 규종님 응원하고 있어요!! 달도효소 화이팅! 4 건강분야 컨셉 잘 선택하신것 같아요^ 오랫동안 잘 브랜드 만드시길 응원합니다. 5 달도효소^^ 김규종님 응원합니다^^~~ 6 규종오빠 항상 응원해요 7 SS501 김규종. 어제 살림남2 최수종 하희라편에도 나오던데, 최수종하고도 가까운 사이인가요? ㅎㅎ 달도효소는 무엇인가요? 궁금합니다. 아무튼 제2의인생 잘 시작하길 바랍니다 8 언제 이런걸준비했대요? 외디즈 달도효소^^ ㅋㅋ 규종님. 제 2의 사업도 대승하리라 믿어의심치 않습니다. 저도 펀딩하고 먹어볼께요.^^ 9 진짜맛있어요. 달도효소! 오빠의 진심이 느껴집니다.^^ 10 와디즈에 펀딩했어요. 오빠의 진심이 느껴지는 상세페이지 사업가로서도 성공하길 기도합니다 1 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 2 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 3 이상래 대전시의장, 외유논란 사과...제주연수는 취소 4 "손주들 모듈러 교실로 꼭 보내라"..대전시의회, 시교육청 '난타' 5 지방거점국립대 1인당 교육비, 서울대 38.9% 수준 6 서철모 서구청장, 본회의장에서 대놓고 의회 무시? 7 위태로운 9대 대전시의회, 애꿎은 사무처에 화풀이? 8 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 9 논산에 둥지 튼 ‘한국유교문화진흥원’ 문 열었다 10 [부고] 박순영(지방분권 세종회의 회장) 씨 별세 하단영역 주요뉴스 대전신일여고, 지역 주민과 함께 하는 ' ‘Gallery 48’ 개관 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 도로 위 달리는 기차 ‘트램’...안전대책 미비 ‘강경젓갈이 상월고구마를 만나다!’ 12일 개막 논산시의회, 개원 100일 맞아...생활밀착형 의정활동 펼쳐 계룡세계군문화엑스포, 국내외 참전용사 및 가족 초청 행사 개최 전교조 대전지부 "갑질 부추기는 이장우 대전시장" 대전 서구 월평도서관 원데이 미디어 클래스 운영 대전 서구, 갈마·둔산·월평도서관 시니어 기초영어 운영 계룡시, 소규모 농업인 시설하우스 지원 추진 전체보기 Contact US 대표전화 042-471-8114 팩스 042-471-8120 제보전화 042-471-811424시간 긴급 기사·사건 제보(심야·공휴일) Infomation 매체소개 기사제보 광고문의 이용약관 언론윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 장기간행물등 사업등록증 : 대전 아 00003 등록년월일 : 2001-08-01 제호 : 디트NEWS24 법인명 : (주)디트뉴스24 발행일 : 2001-08-01 발행인 : 박길수 편집인 : 김재현, 박길수 청소년보호책임자 : 박길수 대전광역시 서구 한밭대로 755 (삼성생명) 삼성생명빌딩 703호 대표전화 : 042-471-8114 팩스 : 042-471-8120 [ 디트뉴스24 ] 사업자번호 : 305-81-63253 통신판매업신고번호 : 제2011-대전중구-0243호 Copyright © 2022 디트NEWS24. All rights reserved. naver-tv youtube facebook 위로 전체메뉴 전체기사 정치 전체 국회/청와대 대전 충남 세종 행정 전체 대전 정부대전청사 세종 정부세종청사 충남 경제 전체 건설·부동산 유통 금융 경영·기업 이기업인 창업정보 과학·IT·드론 대전테크노파크 스마트혁신 사회 전체 법원/검찰 경찰 대전 세종 충남 교육문화스포츠 전체 교육일반 초중고 대학 문화일반 공연전시 문학소설 스포츠 책이야기 책 기부 캠페인 내부칼럼 전체 사설 디트의 눈 데스크칼럼 관점 김학용 칼럼 외부칼럼 전체 자문위원 칼럼 자유기고 오광영의 손스피커 대덕구 혁신로드 강영환의 로컬노믹스 여정권의 야구에 산다 한기원 칼럼 권혁필의 새로운 생각 성광진의 교육 통(痛) 이지완의 포토詩세이 김충남의 열두줄 인문학 라창호의 허튼소리 가기천의 확대경 박경은의 힐링에세이 송선헌의 시와 그림 김종진의 행복한 인성 이야기 김경훈의 공감소통 변해섭의 선거법 해설 리헌석의 예술계 산책 정승열의 세계 속으로 송진괄의 신비한 산야초 오정균의 세상만사 박한표의 사진 한 장 강영환의 정치 톺아보기 손창규의 과학 한의학 길공섭의 빛그림 황종규의 술이야기 윤영애의 명리 山海境 디트맛집 전체 대전 세종 충남 언론계 전체 언론계 소식 미디어비평 본사-알립니다 디트메디 전체 의료계 의료인 충남디트 전체 천안·아산 서산·태안·당진 공주·부여·청양 예산·홍성 논산·계룡·금산 보령·서천 디트사이언스 전체 대덕특구 출연연구기관 중기벤처기업 보도자료 전체 대전시 세종시 충남도 동구 중구 서구 유성구 대덕구 기타 사람들 전체 부음 결혼 인사 행사·모임 수상 동정 사람들 우리기관 홍보맨 사람이 미래다 웰빙 전체 여행과 레저 트렌드 TV/연예 전체 TV 연예 대전교육복지소식 전체 교육청소식 학교소식 학생기자단 정보마당 충남체육예술교육 전체 충남도교육청 지역교육지원청 학교소식 미분류 지난연재 기타 전체메뉴닫기</t>
   </si>
   <si>
     <t>'갑자기히어로즈' 러블리즈, 제주도 '개별관광'의 진수♥(종합) - 헤럴드 POP 기후위기시계 × News 방송 가요 영화 드라마 예능 이슈 ●실시간 뉴스 방송 '갑자기히어로즈' 러블리즈, 제주도 '개별관광'의 진수♥(종합) 2017.06.03 18:28 [헤럴드POP=원해선 기자] 러블리즈 케인, 예인이 제주도의 개별관광의 진수를 보여줬다. 3일 방송된 JTBC 예능 프로그램 '갑자기 히어로즈'에서는 ‘작전명 : 갑자기히어로즈표 개별관광코스를 만들어라!’에 도전하는 멤버들의 모습이 그려졌다. 최근 제주도는 단체 관광객들이 줄어 어려움을 겪고 있었고, 히어로즈팀은 늘어나고 있는 개인 여행을 타겟으로 한 ‘개별관광코스 만들기’에 도전했다. 러블리즈 케이, 정준하, KCM이 한 팀을 이뤘고 주우재, 러블리즈 예인, 이재훈, 강타가 한 팀을 이뤄 관광코스 만들기에 나섰다. 두 팀은 먼저 제주도의 맛집을 탐방했다. 주우재팀은 침샘자극 비주얼을 자랑하는 통갈치 해물찜 집을 찾아갔고, 싱싱한 전복과 해산물에 감탄했다. 주우재가 살아 움직이는 전복에 신기해하자 강타가 “전 우재 오빠도 보고, 전 복이 많아요”라며 ‘전복’ 아재개그를 선보였다. 당황하는 주우재와 달리 예인은 웃음을 터트렸다. 알고 보니 예인도 아재개그 선수였던 것. 정준하팀은 나름 고급스럽게 코스 요리를 즐길 수 있는 레스토랑을 찾아갔다. 자연식 재료와 음식을 미리 만들어 놓지 않고 주문이 들어오면 그때 그때 조리하는 신선함이 눈길을 끌었다. 메밀면, 불고기, 감귤 키스 카푸치노, 제주 전통 옹기에 발효시킨 요거트 등 오감을 만족시킨 한 끼를 먹었다. 주우재팀은 식사를 마치고 승마장으로 이동했고, 러블리즈의 막내 예인과 히어로즈팀의 막내 주우재가 꽁냥꽁냥하며 함께 승마에 도전해 엄마미소를 유발했다. 다음으로 번지점프대에 올라 짚와이어를 타고 내려오는 것에 도전했다. 주우재는 본인은 키가 커서 자신은 탈 수 있는 조건이 안 된다며 도망쳤고, 안전요원이 “딱히 키에 제한은 없다”고 말해 강제 탑승의 길에 올랐다. 강타, 예인, 주우재, 이재훈은 하강에 모두 성공했다. 정준하 팀은 제트보트에 도전했고, 짜릿한 스릴을 만끽한 뒤 너덜너덜해진 모습을 보여 웃음을 안겼다. 한편 '갑자기 히어로즈'는 지상 낙원이라 불리는 '제주도'에 존재하는 우리가 모르는 지역사회만의 고민거리를 해결하는 프로그램이다. popnews@heraldcorp.com 오늘의 인기정보 오늘의 인기정보 오늘의 인기정보 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 신문윤리강령 FAMILY SITE FAMILY SITE 헤럴드경제 코리아헤럴드 K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드팝 인터넷신문등록번호:서울 아03712 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 온라인 뉴스룸 : 02-723-9623 Copyright Herald Corporation. All Rights Reserved.</t>
   </si>
   <si>
-    <t>제주도, ‘먹튀’ 사업자 막는 ‘관광개발사업 개선대책’ 마련-국민일보 시사 시사 &gt; 전체기사 제주도, ‘먹튀’ 사업자 막는 ‘관광개발사업 개선대책’ 마련 입력 : 2017-06-01 13:50 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 관광개발 희망사업자에 대해 자본검증을 미리 실시하는 등 관광개발사업 관리강화에 나섰다. 제주도는 무분별한 난개발 논란과 세금감면 혜택을 받고도 제대로 투자이행을 하지 않을 경우에 대비해 ‘관광개발사업 및 투자진흥지구 사후관리 개선대책’을 마련, 이달부터 본격적으로 적용한다고 1일 밝혔다. 도는 우선 관광개발사업 승인 후 형식적 착공만 하고 공사가 지연되는 사례를 막기 위해 착공신고 시 건축착공에 관한 서류를 첨부토록 하고, 착공 전 미확보 사유지가 없는 지 소유권 확보여부를 철저히 가려낸다는 방침이다. 사업기간을 연장하는 경우에는 이행 계획서 적합여부 등을 검토해 연장여부를 결정하되 추진 공정별로 개발사업에 대한 별도관리도 이뤄진다. 전체사업 공정률이 30% 미만인 개발사업장은 이행계획서를 검토해 잔여 사업계획에 필요한 기간을 연장하고, 가시적 성과가 없을 경우 취소여부를 검토한다.  또 승인 후 10년이 경과된 사업장의 경우 투자유치가 어렵다고 판단되면 완료된 사업에 한해 준공처리한 뒤 사업을 종결할 계획이다. 도는 이와함께 사업장별 추진·상황 관리시스템을 구축, 투자·고용현황을 2월과 8월 2차례 제주도 홈페이지에 공표하도록 했다. 도 관계자는 “자본금 먹튀논란을 해소하기 위해 지분변동이 30% 이상 발생하는 경우 미리 신고를 하도록 의무화했다”며 “관광지개발사업 관련 조례와 시행규칙을 개정해 이같은 내용을 제도화할 것”이라고 밝혔다. 제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘채널A 기자 명예훼손 혐의’ 최강욱 1심 무죄 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 직원 폭행에 내연녀 심부름까지…회장님의 ‘갑질’ 의혹 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 “서울-평양 올림픽 제안서 보니…北 인프라 구축 22조” 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 [속보] ‘채널A 기자 명예훼손 혐의’ 최강욱 1심 무죄 ‘김치용 배추’ 구글 번역기 돌리니 ‘Chinese cabbage’ 日 22세 거포 무라카미, 56호 홈런으로 신기록 썼다 주호영 “文, 왜 과민반응인지 모르겠다…조사 응해야” 경기도 ‘면접수당’ 문화 확산…지급 인증 기업 모집 임윤찬의 베토벤 ‘황제’ 실황 앨범 11월 발매 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 광주의 10월 가을축제 향연…세계 최대 거리공연 첫선 [단독] 文정부 ‘최초 5G 상용화’ 180조원 홍보…과기부 “경제효과 측정 불가” 이재명, 감사원 文 조사에 “‘공포정치’ 尹정부에 강력 경고” 尹대통령, 北미사일에 “NSC 개최”…감사원 조사엔 “일반적 원칙” 완도수목원서 숲속음악회…‘가을산책 문화행사’ 풍성 尹 “북한 4000㎞ 미사일 발사…핵도발, 결연한 대응 직면할 것” 하나투어·질병관리청, ‘SAFETY CODE’ 공동 캠페인 대구경찰 텔레그램 가상자산 마약유통·투약 53명 입건</t>
+    <t>제주도, ‘먹튀’ 사업자 막는 ‘관광개발사업 개선대책’ 마련-국민일보 시사 시사 &gt; 전체기사 제주도, ‘먹튀’ 사업자 막는 ‘관광개발사업 개선대책’ 마련 입력 : 2017-06-01 13:50 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 관광개발 희망사업자에 대해 자본검증을 미리 실시하는 등 관광개발사업 관리강화에 나섰다. 제주도는 무분별한 난개발 논란과 세금감면 혜택을 받고도 제대로 투자이행을 하지 않을 경우에 대비해 ‘관광개발사업 및 투자진흥지구 사후관리 개선대책’을 마련, 이달부터 본격적으로 적용한다고 1일 밝혔다. 도는 우선 관광개발사업 승인 후 형식적 착공만 하고 공사가 지연되는 사례를 막기 위해 착공신고 시 건축착공에 관한 서류를 첨부토록 하고, 착공 전 미확보 사유지가 없는 지 소유권 확보여부를 철저히 가려낸다는 방침이다. 사업기간을 연장하는 경우에는 이행 계획서 적합여부 등을 검토해 연장여부를 결정하되 추진 공정별로 개발사업에 대한 별도관리도 이뤄진다. 전체사업 공정률이 30% 미만인 개발사업장은 이행계획서를 검토해 잔여 사업계획에 필요한 기간을 연장하고, 가시적 성과가 없을 경우 취소여부를 검토한다.  또 승인 후 10년이 경과된 사업장의 경우 투자유치가 어렵다고 판단되면 완료된 사업에 한해 준공처리한 뒤 사업을 종결할 계획이다. 도는 이와함께 사업장별 추진·상황 관리시스템을 구축, 투자·고용현황을 2월과 8월 2차례 제주도 홈페이지에 공표하도록 했다. 도 관계자는 “자본금 먹튀논란을 해소하기 위해 지분변동이 30% 이상 발생하는 경우 미리 신고를 하도록 의무화했다”며 “관광지개발사업 관련 조례와 시행규칙을 개정해 이같은 내용을 제도화할 것”이라고 밝혔다. 제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야”</t>
   </si>
   <si>
     <t>관광개발 사업, 그물망 엄격규제로 제주도 투자자 떠날까 Powered by HOSTWAY 뉴스레터 구독신청 베타경제 베타뉴스TV 로그인 회원가입 Last Update : 전체기사 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 전체기사 리뷰 가전리뷰 기획기사 벤치마크 구입가이드 탐방 인터뷰 칼럼/사설 팁테크 이벤트 동영상 전체기사 뉴스 탐방/인터뷰 이벤트 리뷰 기획기사 기자수첩/칼럼 종합 전체기사 종합 블록체인 정책 산업 중소기업 건설/부동산 국제경제 증권 금융 경제일반 생활경제 재계 제약/의료 전체기사 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 전체기사 문화 연예 스포츠 정치 제주소식 관광개발 사업, 그물망 엄격규제로 제주도 투자자 떠날까 심미숙 seekmisook@betanews.net 기사 입력 : 2017-05-31 23:59:36 도내 관광개발사업과 투자진흥지구의 관리가 더욱 엄격해진다. 제주특별자치도는 관광개발사업 및 투자진흥지구의 사후관리 개선책을 마련해 오는 6월 1일부터 본격 적용할 방침이라 밝혔다. 관광개발사업의 장기간 투자지연으로 세제감면 등의 혜택을 누리면서도 계획이 미 이행되는 문제점이 발생함에 따라, 개발사업 추진과정에서 나타날 수 있는 이슈들을 사전 예방하고 사업 승인부터 이후 관리까지 엄격히 점검해 원활한 사업 추진을 도모할 계획이다. 특히, 계획된 투자·고용 부분에 대한 사후관리를 강화함으로써 청정과 공존의 가치에 부합된 관광개발이 될 수 있도록 유도하고, 추진상황을 공개할 계획이다. 관광개발사업은 앞으로 사업승인 후 착공 단계부터 관리가 강화되며 사업 연장․변경 시엔 일정에 따라 심의를 통해 연장여부가 결정된다. 우선, 개발사업 승인 후 사유지 확보 곤란으로 공사를 지연하는 사례를 사전 방지하기 위해, 착공 전 미확보 사유지에 대해 소유권을 확보 토록 할 계획이다. 또 형식적 착공만 하고 공사를 지연하는 사례가 없도록 착공 신고 시 건축착공에 관한 서류(착공필증)을 첨부토록 한다. 사업계획 및 사업기간 변경으로 추진 일정이 지연되는 문제점도 개선된다. 사업기간을 연장하는 경우, 이행계획서 적합여부 등을 검토해 연장 여부를 결정하되, 추진 공정별로 개발 사업에 대한 별도관리가 이뤄진다. 전체 사업공정 30% 미만 개발사업장은, 이행계획서를 검토해 잔여사업계획에 필요한 기간을 연장하고 가시적 성과가 없을 경우 미개발용지를 제척하거나 또는 취소여부를 검토할 계획이다. 승인 후 10년 이상 경과된 사업장인 경우, 기간 연장 후 투자유치 불투명 시 완료된 사업에 한해서 준공 처리해 사업을 종결한다. 사업계획이 변경돼야 할 경우에는 관광개발사업 가이드라인, 미래비전 등 제주도 계획에 부합하는 경우에는 변경을 승인하나, 수익성 위주의 사업(숙박 시설 위주)이나 당초 사업계획 대비 50% 이상 변경은 불허한다. 또, 유원지 시설 중 부지면적 5%이상 또는 세부시설계획이 획지면적 30% 이상의 변경과 건축 연면적 10% 초과해 사업 계획을 변경하는 경우에도 도시계획위원회 심의를 받도록 변경된다. 관광개발사업이 지역경제와 연계된 개발이 되도록 하기 위한 관리체계도 구축 중이다. 관광개발사업 승인 시 승인조건을 이행하기 위한‘사후관리 협의체’가 효율적으로 운영되고 관리되도록‘승인부터 준공’까지 단계와‘운영’단계로 구분한다. 각 부서는 단계별로 임무를 부여, 실질적으로 개발사업 효과가 나타날 수 있도록 할 계획이다. 또한, 투자 및 고용 등 추진상황을 관리하기 위한 시스템(데이터베이스)도 구축해 운영한다. 사업자가 연 2회 자료 입력을 하게 되며 입력한 자료를 토대로 행정에서 모니터링하고, 사업장별로 현장을 점검해 사업이 정상적으로 추진될 수 있도록 상시 관리한다고 설명했다.  사업장별 투자 및 고용상황을 연2회(2월, 8월) 제주도 홈페이지에 공표해 추진상황을 투명하게 공개한다. 먹튀 논란을 해소하기 위해 지분변동이 30%이상 발생 시 사전 신고도 의무화 한다. 투자진흥지구인 경우 지정해제에 따른 실효성을 확보하기 위해 투자이행 기간을 5년 이내로 하고, 5년 내에 투자가 완료되지 않을 경우 지정해제 조치가 이뤄져, 인센티브 제공에 부합하는 조속한 투자실현으로 지역경제 파급효과가 극대화 되도록 할 계획이라고 밝혔다. 제주특별자치도는 앞으로 관광지 개발사업 관련 조례․시행규칙을 개정하고, 투자진흥지구 제도를 개선할 계획이다. 종전에는 관련조례 반영이 필요한 착공기준 강화, 사업기간 연장 및 사업계획 변경에 따른‘개발사업 위원회 자문’과 각종 위원회 심의 후 행정절차 이행 후 자본검증을 하였다. 하지만 앞으로는 개발사업 시행승인 초기단계에서 사업자의 적격성과 투자자본을 객관적으로 검증하기 위해 ‘개발사업위원회 심의’를 거치도록 하는 사안 등은 7월 중 관련 조례를 개정한다고 강조했다. 투자진흥지구 투자이행 기간 설정 등 제주특별법 개정이 필요한 사항은 6단계 제도개선에 반영해 추진할 예정이다. 이번에 발표한 관광개발사업 사후관리 개선대책으로 道는 개발 사업에 따른 추진상황을 공개해 관광개발 사업에 대한 사후관리가 더욱 투명하고 공정하게 관리될 것으로 기대한다고 주장했다. 한편 관광개발사업과 투자진흥지구의 관리 내용을 접한 한 경총 회원은“이정도 내용이라면 한국에서 가장 엄격한 규제”라며 “국제적 스탠다드와는 거리가 멀어 투자매력이 떨어질 수 밖에 없다”고 우려했다. 베타뉴스 심미숙 (seekmisook@betanews.net) Copyrights ⓒ BetaNews.net Google 뉴스피드에 Betanews를 추가하세요. 독점 비디오를 보려면 Youtube에서 베타뉴스TV를 구독하세요 목록 위로 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 제주소식 &gt;&gt; 카드뉴스 제주뉴스 개인정보취급방침 회사소개 연혁 찾아오는길 기사제보 광고문의 기사문의 RSS 구독하기 ㆍ(주)베타뉴스 ㆍ제호 : 베타뉴스 ㆍ발행일 : 2001년 9월 29일 ㆍ등록번호 : 서울아00247 ㆍ등록일 : 2006년 9월 8일 ㆍ발행인 겸 편집인 : 이직 ㆍ주소 : 04316 서울시 용산구 원효로 237 화전빌딩 3층 (주)베타뉴스 ㆍ광고문의 : 마케팅국장 김진호 ㆍ청소년보호책임자 : 박미선 ㆍ사업자번호 : 106-86-07377 ㆍ통신판매업 신고 : 용산 제00314호 ㆍ전화 : 02-3211-3040 ~1 ㆍFAX : 02-714-3042 ㆍ문의메일 : leejik@betanews.net Copyright(C) 1999-2017. BetaNews co. ltd. All rights reserved</t>
   </si>
   <si>
-    <t>제주도관광협회, '5월 베스트 관광인' 선정 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, '5월 베스트 관광인' 선정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, '5월 베스트 관광인' 선정 정용기 기자 승인 2017.06.11 14:34 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=정용기 기자] 제주특별자치도관광협회(회장 김영진)는 지난 8일 라마다플라자 제주호텔에서 ‘5월 베스트 관광인’으로 김은례 ㈜제주토박이 과장을 선정했다.정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>[돈가득] 제주도 중문에서 관광 후 서귀포 흑돼지 맛집 ‘돈가득’에서 맛있는 한 끼. &lt; 생활경제 &lt; 경제 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [돈가득] 제주도 중문에서 관광 후 서귀포 흑돼지 맛집 ‘돈가득’에서 맛있는 한 끼. SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 경제 생활경제 [돈가득] 제주도 중문에서 관광 후 서귀포 흑돼지 맛집 ‘돈가득’에서 맛있는 한 끼. 기자명 전산부 입력 2017.06.09 17:11 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 여행의 계절이 돌아왔다. 우리나라 곳곳에는 아름다운 자연 경관을 자랑하는 여행지가 많지만 푸른 바다와 시원한 바람, 맛있는 음식이 있는 곳 ‘제주도’는 일 년 내내 국내외 관광객들의 발걸음이 끊이지 않는 대표적인 여행지이다.특히 서귀포시에 있는 ‘중문관광단지’는 세계적으로 인정받는 종합관광휴양단지로 대포 주상절리와 천제연 폭포, 색달해변과 다양한 종류의 박물관 등 아름다운 자연과 문화체험을 동시에 즐길 수 있는 곳이다. ‘대포 주상절리’는 제주도에 있는 수많은 주상절리 중에서도 가장 큰 규모와 웅장함을 자랑하는데 검은색 주상절리 기둥에 거친 파도가 다가와 하얗게 부서지는 모습은 경이로움마저 들게 한다.‘천제연 폭포’는 시원하게 쏟아져 내려오는 폭포수도 인상적이지만, 우리나라에서 찾아보기 힘든 송엽란, 담팔수 등의 희귀식물로 이루어진 폭포 양옆의 난대림 지대가 관광 포인트이다. 그 외에 색달해변의 해변가를 따라 여유롭게 산책하고, 아이들과 함께 한 여행이라면 초콜릿박물관과 테디베어뮤지엄 등 테마 박물관을 방문해 둘러보는 것도 좋다.하지만 금강산도 식후경 아닌가. 아름다운 자연과 문화체험을 즐겼다면 제주도의 음식을 즐길 차례.중문동에 위치한 복분자를 뿌린 흑돼지 전문점 ‘돈가득’은 품질 좋은 제주도산 흑돼지를 잡내 제거를 위해 참숯에 굽기 직전 복분자를 뿌려주는 맛집이다. 그렇게 풍미는 더욱 살리고 잡내는 없애 손님들에게 인기가 좋아 최근에는 MBC에브리원 ‘맛있을 지도’ 방송에도 소개되었다. MC 개그맨 김경식과 일본 여자연예인 사유리가 게스트 두 명과 함께 방문했는데, 평범한 흑돼지 메뉴이지만 맛은 결코 평범하지 않다며 감탄했다고. 특히 입맛뚝심 있는 사유리가 누구보다 맛있게 잘 먹었다는 후문이다.제주도산 흑돼지라 맛있고 참숯에 구워 숯불향 머금어 더욱 맛있는 ‘돈가득’의 흑돼지는 복분자로 잡내를 없애는 것 외에 주인장이 만든 특제 양파절임이 인기에 한 몫을 한다.흑돼지에는 보통 멜젓을 찍어 먹는데 이곳은 멜젓 외에 양파와 식초, 고춧가루로 만든 깔끔한 맛의 양파절임과 함께 먹는 흑돼지 맛이 일품이다.올 여름 휴가철에 제주도에 방문, 중문관광단지에서 관광 후 ‘돈가득’에서 맛있는 흑돼지 한상으로 제주도 여행을 더 풍성하게 만들어보길 권한다. 저작권자 © 금강일보 무단전재 및 재배포 금지 전산부 jhc@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 [속보]4호선 지하철 시위, 4일 출근길 지연 고명환 와이프 임지은 프로필은? [오늘의 운세] 4일 띠별 나의 운세는? 시사 지역 문화·연예 01 [속보]4호선 지하철 시위, 4일 출근길 지연 02 유승민, 보수 차기 대권주자 1위... 범진보 이재명 독주[리처치뷰 여론조사] 03 '러시아 동원령' 안현수는? 04 대전·세종 집값 하락폭 전국 1·2위 다투는 중 05 충북 옥천에 첫 ‘e편한세상 퍼스트원’ 분양 06 여수 해상서 기름유출 사건 발생 07 [오늘날씨] 개천절 흐리고 비, 내일까지 수도권 최대 100mm 08 대전상의-민주당 ‘지역경제 활성화’ 간담회 09 이자 부담 느는데 중도상환도 어렵다 10 “고물가에 후원금도 줄었는데…” 11 공공요금 ‘더블인상’...시름하는 충청경제 12 군가 '멸공의 횃불' 왜 가사 바뀌었나? 13 국민 절반 ‘육사 충남 이전’ 찬성 14 [尹정부 첫 국감] 외통위·국방위 등서 文·尹 정권 격돌 예고 전체보기 01 [백제문화제 이모저모] 발 디딜 틈 없이 ‘문전성시’ 02 아산시, 배방 지역 공공기여 협약 체결 03 부여군장애인종합복지관 찾은 ‘사랑의짜장차’ 04 국립부여박물관, 특별전 ‘백제 기술, 흙에 담다’ 개최 05 국학원, 단기4355년 개천절 기념, '한국인이 한국인답게' 경축 행사 개최 06 부여군, ‘백제 사비천도 페스타’ 선봬 07 천안시 2022 충남체전 종합 우승 ··· 역대 최고 성적 08 이명수 의원, 지방문화원 지원 강화 법 발의 09 제천시, 특정업체에 ‘일감몰아주기’ 의혹 논란 10 영동군, 도약과 발전을 위한 2023년 청사진 제시 11 보은군의회, 의원 발의 조례 2건 의결 12 영동군, 민선8기 첫 추경 역대 최대 7673억 원 확정 13 단양 도담정원, 2만㎡ 황화 코스모스 물결 장관 14 괴산유기농산업엑스포, 입장객 10만 명 돌파 전체보기 01 고명환 와이프 임지은 프로필은? 02 이천수 와이프 심하은 누구? 03 엄정화 올케 윤혜진, 사이좋은 모습 공개 04 송가인 최애 가수는 바이브 05 박수홍, 봉사활동 모습 공개 06 '조이 언급' 크러쉬 당황시킨 비비 07 구단주 허재의 '살벌한 욕설' 이유 08 '신혼' 손예진, 현빈과 달달한 모습 공개 09 임영웅과 데이트하는 영상? ‘사랑해 진짜’ 10 '수리남' 김민귀 "광신도 연기하려..." 11 설민석 2년만 방송 복귀, 대중들 반응은? 12 김용건 예비며느리 황보라, 차현우와 혼인신고 완료 13 박민영 재력가 열애설부터 친언니 사외이사 선임까지 14 구준엽♥서희원, “화장실 갈 때도 안아서 데려가” 전체보기 가장 빠른 충청뉴스 아산시, 배방 지역 공공기여 협약 체결 아산시 배방 공수 지역 개발사업자들이 총 1000억 원의 공공기여금을 통해 해당 지역의 교통환경을 개선을 돕게 된다.박경귀 시장은 지난달 30일 신도리코 공장 이전 부지 개발사업자... [백제문화제 이모저모] 발 디딜 틈 없이 ‘문전성시’ 부여군장애인종합복지관 찾은 ‘사랑의짜장차’ 국립부여박물관, 특별전 ‘백제 기술, 흙에 담다’ 개최 스포츠 뉴스 천안시, 충남체육대회 종합 우승 차지 대전도시공사 펜싱팀 하태규 ‘금빛 찌르기’ [포토] 설동호 교육감 전국체전 출전 선수단 격려 ‘현대가(家)’ 리디아 고, 약혼자가 걱정해... [사진뉴스] LX 지역본부, 충남체육회에 전국체전 기부금 전달 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 관광진흥기금 2280억 원금상환 1년 유예 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 관광진흥기금 2280억 원금상환 1년 유예 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 관광진흥기금 2280억 원금상환 1년 유예 정용기 기자 승인 2017.06.07 19:03 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 관광숙박업 1864억원 상환유예…전체 81.7% 차지 [제주일보=정용기 기자] 제주특별자치도는 도내 관광업체 지원을 위한 제주관광진흥기금 원금상환 유예지원 금액을 2280억원으로 최종 확정했다고 7일 밝혔다.이번 원금상환 유예지원은 중국 정부의 한국 관광 금지로 인해 어려움을 겪고 있는 도내 관광사업체 지원을 위한 것이다.유예 확정 대상자는 최대 1년간 융자금 원금상환이 유예된다.원금상환이 유예된 업체는 총 18개 업종에 291개 업체다. 이 중 관광숙박업체가 186개·1864억원으로 전체의 81.7%를 차지하고 있다.또 관광농원업을 포함한 7개 기타업종이 44건·160억원으로 7.0%, 휴양펜션업, 관광식당업 등 관광 편의시설업이 40건·145억원으로 6.4%, 전문휴양업, 관광유람선업을 비롯한 관광객 이용시설업이 14건·83억원으로 3.7%를 차지하고 있다.유원시설업 4건·22억원과 일반여행업 3건·5억원 등도 원금상환 유예가 확정됐다.제주도는 원금상환 유예지원 계획을 도청 홈페이지를 통해 지난 3월 공고했으며, 지난 4월부터 융자업무 취급 협약금융기관에서 접수, 은행별 1차 자체심사를 거쳐 도에서 최종지원을 확정했다.이승찬 제주도 관광국장은 “경영난을 겪고 있는 도내 관광사업체 지원을 위해 특별융자와 더불어 융자금 원금상황 유예 지원을 결정했다”며 “제주관광산업 발전을 위한 기금 운용 정책을 추진할 계획”이라고 말했다. 정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 읍면 단위 지역관광 사업 시동 &lt; 제주 &lt; 전국 &lt; 기사본문 - 한국농어민신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 홈 전체기사 facebook kakao twitter 로그인 회원가입 구독신청 서울 Y 16℃ 미세먼지 좋음 경기 H 19℃ 미세먼지 좋음 인천 Y 18℃ 미세먼지 좋음 광주 R 19℃ 미세먼지 좋음 대전 R 20℃ 미세먼지 좋음 대구 R 23℃ 미세먼지 좋음 울산 H 26℃ 미세먼지 좋음 부산 H 25℃ 미세먼지 좋음 강원 H 21℃ 미세먼지 좋음 충북 R 19℃ 미세먼지 좋음 충남 R 20℃ 미세먼지 좋음 전북 R 19℃ 미세먼지 좋음 전남 R 19℃ 미세먼지 좋음 경북 R 23℃ 미세먼지 좋음 경남 R 25℃ 미세먼지 좋음 제주 R 22℃ 미세먼지 좋음 세종 R 20℃ 미세먼지 좋음 전체메뉴 버튼 #물가 확대경 ‘물가관리’ 덫에 걸린 참깨…산지 생산기반 또 흔든다 대형마트 주요 농축산물 가격 ‘천차만별’ 정황근 장관 ‘물가 점검’ 현장 행보 정부, 생활·밥상 물가 잡기에 총력전 [품목포커스/양배추] 출하 줄었는데 수요 증가 ‘고공행진’ "치킨값 상승, 닭고기 가격 때문 아니다" 수확철 앞둔 수박 산지, 출하물량 부족에 ‘뒤숭숭’…“강세도 달갑잖아” [품목포커스/참외] 출하 물량 지난해보다 15~20% 줄어 ‘시세 양호’ [품목포커스/토마토] 이달 중순 이후 출하 몰려 약세 전망 [품목포커스/오이] 외식 수요 증가로 소비 확대 기대 “양파 가격 회복 안 돼…추가 폐기 시행하라” 옥수수 가격 1년새 두 배…천정부지 사룟값에 농가·업체 ‘죽을 맛’ #연재 계절근로자 유치·관리, ‘전문기관’ 위탁…지자체 부담 줄인다 “CPTPP 경제효과 거의 없고, 농업분야 타격 매우 클 것” “외국인 근로자 ‘이민농’으로 육성…지방소멸·인력난 대응” 농어촌공사, 농지 환매차익 ‘1824억’ 거뒀다 경북 영주, ASF 첫 발생…야생멧돼지 2마리 감염 계속되는 ASF…농가 피로도 높아 강원 양구서 ASF 3개월 만에 발생…한덕수 총리 “초동방역에 만전” ASF 주범 ‘멧돼지 감축정책’ 부실 ‘고용허가’ 외국인 근로자 5만명 대기…“입국절차 간소화” 주문 “고향사랑기부금, 답례품에 함몰되지 말아야” 케어사이드 “ASF 백신 후보주, 안전성·방어능 확인” “CPTPP 가입 땐 중국인삼 ‘한국산’ 표시 가능해져” 오피니언 농업마당 사설 기자수첩 기고ㆍ독자투고 이상길의 시선 농촌 2030 문광운의 화풍정(火風鼎) 농정 정책 국회ㆍ정당 농민단체 협동조합 임업 유통 유통정책 유통현장 유통정보 업계소식 축산 정책·유통 한우 낙농 돼지 닭ㆍ오리 특수가축 사료ㆍ약품ㆍ기자재 업계소식 농산 농산업정책 비료ㆍ농약 농기계 농자재 영농기술 종자 전국 경기 강원 충북 충남 전북 전남 경북 경남 제주 전국 식품 식품정책 식품산업 식품기술 인삼ㆍ특용작물 수산 종합 정책 수협 연근해ㆍ양식 유통ㆍ가공 수출 수출정책 수출현장 해외시장정보 여성 정책 기관ㆍ단체 다문화 여성현장 농촌女담 농어민TV 검색 상세검색 검색 검색닫기 기사검색 검색 저장된 검색어가 없습니다. 키워드 제거 인기 검색어 1. 가을 2. 샤인머스켓 3. 교육 4. 밀키트 5. 한우가격 6. 농협사료 7. 반려식물 8. 한우 9. 돼지 10. 마늘 많이 본 기사 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 쌀 45만톤 격리…“역대 최대물량, 시장 분위기 반전 기대” [한국후계농업경영인강원도대회] “농업발전 책임지는 핵심리더…농업·농촌 재도약 이룩” 전국은 가을꽃 축제 한창 ‘금배추’ 호들갑, 이제 그만 [한국농어민신문] 언론과 물가당국의 ‘배추 때리기’가 도를 넘고 있다. 언론은 연일 ‘금배추’ ‘배추값 폭등’ ‘김장철 비상’과 같은 자극적 보도를 쏟아내고, 이에 맞춰 물가당국은... “외국인 근로자 고용제도 보완…농산물 가격 잡기식 물가대책 손봐야” 떨어지는 쌀값, 쌓이는 벼…농민은 한숨만 [분석] 중앙회장 연임 허용·선거 일정 변경…‘수협법 개정’ 이목 쏠려 잇단 ASF, 발생유형 달라…총체적 방역 점검 목소리 대한산란계협회 창립…“단합된 힘으로 위기 극복” 본문영역 이전 기사보기 다음 기사보기 제주도 읍면 단위 지역관광 사업 시동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도 읍면 단위 지역관광 사업 시동 기자명 강재남 기자 승인 2017.06.02 10:07 신문 2918호(2017.06.06) 12면 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 기사스크랩하기 페이스북 공유 공유(으)로 기사보내기 트위터 공유 공유(으)로 기사보내기 카카오스토리 공유 공유(으)로 기사보내기 카카오톡 공유 공유(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 이 기사를 공유합니다 페이스북 공유 공유(으)로 기사보내기 트위터 공유 공유(으)로 기사보내기 카카오스토리 공유 공유(으)로 기사보내기 카카오톡 공유 공유(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 농어촌마을인 제주지역 읍면 단위 마을간 연계 지역관광 사업이 추진된다.제주특별자치도와 제주관광공사(사장 최갑열)는 마을의 지역 특성을 활용한 지역관광 활성화를 위해 ‘2017년도 읍·면 단위 마을간 연계사업 발굴 및 활성화 사업’을 진행한다고 밝혔다.제주관광공사는 오는 20일까지 읍면 단위 지역관광 사업 추진체를 모집하며, 최종 선정된 1개 읍면을 대상으로 지역 활동가인 가칭 ‘삼춘PD’를 각 마을별로 배치해 맞춤형 마을연계사업을 발굴하는 컨설팅과 사업화를 지원할 계획이다.읍면단위 지역관광 사업은 총 3개년에 걸쳐 사업화 단계, 안착화 단계, 자립화 단계의 모델로 연차별 성과평가에 따라 지원된다.제주=강재남 기자 kangjn@agrinet.co.kr 강재남 기자 kangjn@agrinet.co.kr 기자 프로필 보기 저작권자 © 한국농어민신문 무단전재 및 재배포 금지 당신만 안 본 뉴스 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 쌀 45만톤 격리…“역대 최대물량, 시장 분위기 반전 기대” [한국후계농업경영인강원도대회] “농업발전 책임지는 핵심리더…농업·농촌 재도약 이룩” 전국은 가을꽃 축제 한창 ‘금배추’ 호들갑, 이제 그만 “외국인 근로자 고용제도 보완…농산물 가격 잡기식 물가대책 손봐야” 떨어지는 쌀값, 쌓이는 벼…농민은 한숨만 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 남원 춘향골농협 농업인행복버스 빵빵~ 농관원, 농약 유통관리업무 이관준비 ‘착착’ 양곡관리법 논란 유감 4분기 곡물 수입가격 안정세…환율 급등 변수 [기고] 주요 병해충 친환경방제제 개발 필요성 산림청, 임업인 지원 예산 아랫돌 빼서 윗돌 괴기? 전국 인기뉴스 전체 인기뉴스 1 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 2 “벼 우선지급금, 지난해 가격으로 동결하라” 3 노동력 적고 맛 좋은 사과 ‘시나노골드·감홍’ 미래 유망 4 모바일통합마케팅 전문기업 ‘모바일이앤엠애드’ 서울형 강소기업 선정 5 “액상멀칭, 비닐 대비 경영비 66% 절감” 1 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 2 전국은 가을꽃 축제 한창 3 잇단 ASF, 발생유형 달라…총체적 방역 점검 목소리 4 쌀 대책 현장 반응은ㅣ“쌀값 하락세 멈출 것” “수확기 시그널 시의적절”…지역농협·RPC 긍정적 5 [기자수첩] 금배추 논란, 진짜 중요한 것은 사진뉴스 전국은 가을꽃 축제 한창 떨어지는 쌀값, 쌓이는 벼…농민은 한숨만 다가오는 가을…철원평야 수놓은 황금빛 물결 ‘쌀가루’로 뽐내는 베이킹 실력 하단영역 매체정보 대표전화 : 02-3434-9000 팩스 : 02-3434-9077 홈페이지 관련 불편·건의사항 : webmaster@agrinet.co.kr 서울시 송파구 중대로9길 60 (인터넷광고 : 02-3434-9023 / 신문광고 : 02-3434-9011 / 구독문의 : 02-3434-9004) 신문등록번호 : 서울 아 03463 등록일 : 2014-12-05 발행일 : 2014-12-05 발행·편집인 : 이학구 청소년보호책임자 : 이학구 Copyright © 2022 한국농어민신문. All rights reserved. mail to webmaster@agrinet.co.kr 하단메뉴 매체소개 기자소개 구독신청 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 위로 전체메뉴 전체기사 농정 전체 정책 국회ㆍ정당 농민단체 협동조합 임업 유통 전체 유통정책 유통현장 유통정보 업계소식 식품 전체 식품정책 식품산업 식품기술 인삼ㆍ특용작물 축산 전체 정책·유통 한우 낙농 돼지 닭ㆍ오리 특수가축 사료ㆍ약품ㆍ기자재 업계소식 농산 전체 농산업정책 비료ㆍ농약 농기계 농자재 영농기술 종자 친환경 전체 정책 생산ㆍ유통 친환경농자재 수출 전체 수출정책 수출현장 해외시장정보 전국 전체 농촌관광 경기 강원 충북 충남 전북 전남 경북 경남 제주 전국 수산 전체 종합 정책 수협 연근해ㆍ양식 유통ㆍ가공 렌즈 속 농어민 여성 전체 정책 기관ㆍ단체 다문화 여성현장 농촌女담 사람들 기획 오피니언 전체 농업마당 사설 기자수첩 기고ㆍ독자투고 이상길의 시선 오피니언 기고 정문기 칼럼 농훈칼럼 농어민만평 농촌 2030, 그들이 사는 법 문광운의 화풍정(火風鼎) 윤병선 칼럼 책 속의 한 줄 지역사회 의료이야기 테마 전체 농촌&amp;도시 귀농&amp;귀촌 교육&amp;문화 농업경영인 로컬푸드 건강&amp;생활 사진뉴스 전체 #렌즈 속 농어민 농어민TV 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회 제14차 제주관광포럼 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회 제14차 제주관광포럼 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 제14차 제주관광포럼 개최 정용기 기자 승인 2017.06.08 15:48 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=정용기 기자] 제주특별자치도관광협회(회장 김영진)는 8일 라마다프라자제주에서 ’제14차 제주관광포럼’을 열고 제주관광의 질적 성장을 위한 체질개선 방안을 모색했다.정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>제주도관광협회, '5월 베스트 관광인' 선정 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, '5월 베스트 관광인' 선정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, '5월 베스트 관광인' 선정 정용기 기자 승인 2017.06.11 14:34 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=정용기 기자] 제주특별자치도관광협회(회장 김영진)는 지난 8일 라마다플라자 제주호텔에서 ‘5월 베스트 관광인’으로 김은례 ㈜제주토박이 과장을 선정했다.정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>[돈가득] 제주도 중문에서 관광 후 서귀포 흑돼지 맛집 ‘돈가득’에서 맛있는 한 끼. &lt; 생활경제 &lt; 경제 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [돈가득] 제주도 중문에서 관광 후 서귀포 흑돼지 맛집 ‘돈가득’에서 맛있는 한 끼. SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 경제 생활경제 [돈가득] 제주도 중문에서 관광 후 서귀포 흑돼지 맛집 ‘돈가득’에서 맛있는 한 끼. 기자명 전산부 입력 2017.06.09 17:11 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 여행의 계절이 돌아왔다. 우리나라 곳곳에는 아름다운 자연 경관을 자랑하는 여행지가 많지만 푸른 바다와 시원한 바람, 맛있는 음식이 있는 곳 ‘제주도’는 일 년 내내 국내외 관광객들의 발걸음이 끊이지 않는 대표적인 여행지이다.특히 서귀포시에 있는 ‘중문관광단지’는 세계적으로 인정받는 종합관광휴양단지로 대포 주상절리와 천제연 폭포, 색달해변과 다양한 종류의 박물관 등 아름다운 자연과 문화체험을 동시에 즐길 수 있는 곳이다. ‘대포 주상절리’는 제주도에 있는 수많은 주상절리 중에서도 가장 큰 규모와 웅장함을 자랑하는데 검은색 주상절리 기둥에 거친 파도가 다가와 하얗게 부서지는 모습은 경이로움마저 들게 한다.‘천제연 폭포’는 시원하게 쏟아져 내려오는 폭포수도 인상적이지만, 우리나라에서 찾아보기 힘든 송엽란, 담팔수 등의 희귀식물로 이루어진 폭포 양옆의 난대림 지대가 관광 포인트이다. 그 외에 색달해변의 해변가를 따라 여유롭게 산책하고, 아이들과 함께 한 여행이라면 초콜릿박물관과 테디베어뮤지엄 등 테마 박물관을 방문해 둘러보는 것도 좋다.하지만 금강산도 식후경 아닌가. 아름다운 자연과 문화체험을 즐겼다면 제주도의 음식을 즐길 차례.중문동에 위치한 복분자를 뿌린 흑돼지 전문점 ‘돈가득’은 품질 좋은 제주도산 흑돼지를 잡내 제거를 위해 참숯에 굽기 직전 복분자를 뿌려주는 맛집이다. 그렇게 풍미는 더욱 살리고 잡내는 없애 손님들에게 인기가 좋아 최근에는 MBC에브리원 ‘맛있을 지도’ 방송에도 소개되었다. MC 개그맨 김경식과 일본 여자연예인 사유리가 게스트 두 명과 함께 방문했는데, 평범한 흑돼지 메뉴이지만 맛은 결코 평범하지 않다며 감탄했다고. 특히 입맛뚝심 있는 사유리가 누구보다 맛있게 잘 먹었다는 후문이다.제주도산 흑돼지라 맛있고 참숯에 구워 숯불향 머금어 더욱 맛있는 ‘돈가득’의 흑돼지는 복분자로 잡내를 없애는 것 외에 주인장이 만든 특제 양파절임이 인기에 한 몫을 한다.흑돼지에는 보통 멜젓을 찍어 먹는데 이곳은 멜젓 외에 양파와 식초, 고춧가루로 만든 깔끔한 맛의 양파절임과 함께 먹는 흑돼지 맛이 일품이다.올 여름 휴가철에 제주도에 방문, 중문관광단지에서 관광 후 ‘돈가득’에서 맛있는 흑돼지 한상으로 제주도 여행을 더 풍성하게 만들어보길 권한다. 저작권자 © 금강일보 무단전재 및 재배포 금지 전산부 jhc@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 선우은숙 나이, 전 남편 누구? [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 유영재 프로필 화제, 누구길래? 시사 지역 문화·연예 01 [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 02 전장연, 4호선 지하철 시위 11일 화요일도 강행 03 [내일 날씨] 전국 기상청 일기예보, 아침 최저기온 3도 연휴 뒤 출근길 더 추워...점차 맑은 하늘 회복 04 대전·세종 ‘끝없는 부동산 빙하기’ 05 대전·세종 ‘끝없는 부동산 빙하기’ 06 버킷스튜디오 주가 급락, 이유는? 07 제13회 대전효문화뿌리축제 성료 08 시중자금 은행 쏠림, 반작용 우려 09 1호선, 유튜브 자주 끊기는 이유 10 “지속가능한 대학 최선 다할 것” 11 [2022 국감] 사이버범죄 수사관 1인당 200건 사건 담당 12 피플바이오, 주가 강세 보여 13 비난·논란 자초하는 대전시의회 14 국민 허리띠 졸라매는데 공기업은 특혜… 전체보기 01 예산군, 예산장터 삼국축제서 나무 나눠주기 행사 02 단양군, 법정 계량기 정기검사 실시 03 영동군, 어르신 독감예방접종 12일부터 연령별 순차접종 04 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 05 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 06 보은署, 아동안전지킴이 대상 응급처치 교육 실시 07 보은군 삼승면지사체, 독거노인 주거환경 개선 사업 앞장 08 보은 동광초, 초록학교 활동 전시회 열어 09 옥천군 정신건강 홍보주간 운영 10 세종 갈산서원서 가을 수놓는 국악 선율 11 [동정] 보령시장 12 금산군, 우수 평생학습도시 선정 13 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 14 보령시, 전국 자동차 동호인들이 대천해수욕장에 다 모인다 전체보기 01 선우은숙 나이, 전 남편 누구? 02 유영재 프로필 화제, 누구길래? 03 임영웅, ‘TMA 5관왕’ 04 박수홍 엄마 ‘카레사건’ 재조명 05 ‘복귀’ 홍진영, 근황은? 06 송가인 콘서트, 목포 다음은 천안 07 임창정 걸그룹 미미로즈, “200억 다 어디갔어?” 08 ‘공효진♥’케빈오 프로필은? 09 골프선수 박결, 국내 톱스타와 불륜설에... 10 '스맨파' 새삥 안무 표절 논란 뭐길래? 11 고두심 아들 김정환 누구? 12 ‘환승연애2’ 최초 유포자에 고소장 제출 13 비비, 비키니 끈 풀려 대형 노출사고 날 뻔... 14 '여성 골퍼와 불륜설'에 비·조정석 뿔났다 전체보기 가장 빠른 충청뉴스 보령시, 전국 자동차 동호인들이 대천해수욕장에 다 모인다 대천해수욕장에서 15~16일 양일간 ‘2022 제1회 보령 AMC 모터페스티벌’을 개최한다.보령시가 주최하고 아주자동차가 주관하는 이번 축제는 차량 튜닝, 전시, 모터스포츠 등 자... [동정] 당진시장 [동정] 보령시장 [동정] 서산시장 스포츠 뉴스 이정후 여동생 누구길래? 고우석과 결혼 이대호 와이프 신혜정 눈물...‘왜?’ '레전드' 카시야스-푸욜, 게이설 불러 일으킨 커밍아웃 헤프닝 괴물 김민재, 파워랭킹 7위 랭크 윤이나 징계에 박세리, ‘변명은 절대 있을 수 없다’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 2280억 원금상환 1년 유예 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 관광진흥기금 2280억 원금상환 1년 유예 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 관광진흥기금 2280억 원금상환 1년 유예 정용기 기자 승인 2017.06.07 19:03 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 관광숙박업 1864억원 상환유예…전체 81.7% 차지 [제주일보=정용기 기자] 제주특별자치도는 도내 관광업체 지원을 위한 제주관광진흥기금 원금상환 유예지원 금액을 2280억원으로 최종 확정했다고 7일 밝혔다.이번 원금상환 유예지원은 중국 정부의 한국 관광 금지로 인해 어려움을 겪고 있는 도내 관광사업체 지원을 위한 것이다.유예 확정 대상자는 최대 1년간 융자금 원금상환이 유예된다.원금상환이 유예된 업체는 총 18개 업종에 291개 업체다. 이 중 관광숙박업체가 186개·1864억원으로 전체의 81.7%를 차지하고 있다.또 관광농원업을 포함한 7개 기타업종이 44건·160억원으로 7.0%, 휴양펜션업, 관광식당업 등 관광 편의시설업이 40건·145억원으로 6.4%, 전문휴양업, 관광유람선업을 비롯한 관광객 이용시설업이 14건·83억원으로 3.7%를 차지하고 있다.유원시설업 4건·22억원과 일반여행업 3건·5억원 등도 원금상환 유예가 확정됐다.제주도는 원금상환 유예지원 계획을 도청 홈페이지를 통해 지난 3월 공고했으며, 지난 4월부터 융자업무 취급 협약금융기관에서 접수, 은행별 1차 자체심사를 거쳐 도에서 최종지원을 확정했다.이승찬 제주도 관광국장은 “경영난을 겪고 있는 도내 관광사업체 지원을 위해 특별융자와 더불어 융자금 원금상황 유예 지원을 결정했다”며 “제주관광산업 발전을 위한 기금 운용 정책을 추진할 계획”이라고 말했다. 정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 읍면 단위 지역관광 사업 시동 &lt; 제주 &lt; 전국 &lt; 기사본문 - 한국농어민신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 홈 전체기사 facebook kakao twitter 로그인 회원가입 구독신청 서울 B 12℃ 미세먼지 좋음 경기 B 14℃ 미세먼지 좋음 인천 B 14℃ 미세먼지 좋음 광주 B 17℃ 미세먼지 좋음 대전 B 15℃ 미세먼지 좋음 대구 B 16℃ 미세먼지 좋음 울산 B 17℃ 미세먼지 좋음 부산 B 18℃ 미세먼지 좋음 강원 B 13℃ 미세먼지 좋음 충북 B 15℃ 미세먼지 좋음 충남 B 14℃ 미세먼지 좋음 전북 B 16℃ 미세먼지 좋음 전남 H 17℃ 미세먼지 좋음 경북 B 16℃ 미세먼지 좋음 경남 B 18℃ 미세먼지 좋음 제주 H 16℃ 미세먼지 좋음 세종 B 15℃ 미세먼지 좋음 전체메뉴 버튼 #물가 확대경 ‘물가관리’ 덫에 걸린 참깨…산지 생산기반 또 흔든다 대형마트 주요 농축산물 가격 ‘천차만별’ 정황근 장관 ‘물가 점검’ 현장 행보 정부, 생활·밥상 물가 잡기에 총력전 [품목포커스/양배추] 출하 줄었는데 수요 증가 ‘고공행진’ "치킨값 상승, 닭고기 가격 때문 아니다" 수확철 앞둔 수박 산지, 출하물량 부족에 ‘뒤숭숭’…“강세도 달갑잖아” [품목포커스/참외] 출하 물량 지난해보다 15~20% 줄어 ‘시세 양호’ [품목포커스/토마토] 이달 중순 이후 출하 몰려 약세 전망 [품목포커스/오이] 외식 수요 증가로 소비 확대 기대 “양파 가격 회복 안 돼…추가 폐기 시행하라” 옥수수 가격 1년새 두 배…천정부지 사룟값에 농가·업체 ‘죽을 맛’ #연재 계절근로자 유치·관리, ‘전문기관’ 위탁…지자체 부담 줄인다 “CPTPP 경제효과 거의 없고, 농업분야 타격 매우 클 것” “외국인 근로자 ‘이민농’으로 육성…지방소멸·인력난 대응” 농어촌공사, 농지 환매차익 ‘1824억’ 거뒀다 경북 영주, ASF 첫 발생…야생멧돼지 2마리 감염 계속되는 ASF…농가 피로도 높아 강원 양구서 ASF 3개월 만에 발생…한덕수 총리 “초동방역에 만전” ASF 주범 ‘멧돼지 감축정책’ 부실 ‘고용허가’ 외국인 근로자 5만명 대기…“입국절차 간소화” 주문 “고향사랑기부금, 답례품에 함몰되지 말아야” 케어사이드 “ASF 백신 후보주, 안전성·방어능 확인” “CPTPP 가입 땐 중국인삼 ‘한국산’ 표시 가능해져” 오피니언 농업마당 사설 기자수첩 기고ㆍ독자투고 이상길의 시선 농촌 2030 문광운의 화풍정(火風鼎) 농정 정책 국회ㆍ정당 농민단체 협동조합 임업 유통 유통정책 유통현장 유통정보 업계소식 축산 정책·유통 한우 낙농 돼지 닭ㆍ오리 특수가축 사료ㆍ약품ㆍ기자재 업계소식 농산 농산업정책 비료ㆍ농약 농기계 농자재 영농기술 종자 전국 경기 강원 충북 충남 전북 전남 경북 경남 제주 전국 식품 식품정책 식품산업 식품기술 인삼ㆍ특용작물 수산 종합 정책 수협 연근해ㆍ양식 유통ㆍ가공 수출 수출정책 수출현장 해외시장정보 여성 정책 기관ㆍ단체 다문화 여성현장 농촌女담 농어민TV 검색 상세검색 검색 검색닫기 기사검색 검색 저장된 검색어가 없습니다. 키워드 제거 인기 검색어 1. 가을 2. 샤인머스켓 3. 교육 4. 밀키트 5. 한우가격 6. 농협사료 7. 반려식물 8. 한우 9. 돼지 10. 마늘 많이 본 기사 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 자본금 1000만원 들여 7200배 수익…‘해상풍력 잭팟’ 사실이었다 ‘9.25 쌀 대책’에 산지 가격 상승…벼 수매가 기대심리도 커진다 [한국농어민신문 김영민 기자] 정부의 9.25 쌀 수급대책 발표 이후 농민들의 올해 벼 수매가격에 대한 기대심리가 커지는 분위기다. 다만 지역농협이나 RPC(미곡종합처리장)는 신중... 잇단 ASF, 발생유형 달라…총체적 방역 점검 목소리 산림청, 임업인 지원 예산 아랫돌 빼서 윗돌 괴기? 마늘 2023년산 재배면적 늘고, 양파는 감소 전망 [한국농어민신문 김관태 기자] 2023년산 마늘 재배면적은 올해보다 늘어나고, 양파는 감소할 것으로 보인다. 2022년산 건고추 생산량은 6만3000톤 내외로 전년 대비 20% 이... “시장격리 의무화 땐 쌀 공급 과잉 심화” 농경연 보고서 논란 [한국농어민신문 김선아 기자] 쌀 시장격리 의무화를 골자로 한 양곡관리법 개정안을 두고 여야가 충돌을 이어가고 있는 가운데 국책연구기관인 한국농촌경제연구원(이하 농경연)이 9월 3... 출하량 폭발 샤인머스켓, 2만원대 평균가격 무너졌다 [농협법 개정안 본회의 통과] 농협은행 신용공여 한도 삭제…자금운용 ‘숨통’ [한국농어민신문 김영민 기자] 농업협동조합법(이하 농협법) 일부 개정 법률안이 국회 본회의를 통과하면서 쌀 시장격리 등 정부의 매입자금 추가 차입에 숨통이 트일 전망이다.농협법 일... [분석] “명태 사라진 이유 ‘남획’ 탓 아니다”…한 교수 주장에 업계 들썩 본문영역 이전 기사보기 다음 기사보기 제주도 읍면 단위 지역관광 사업 시동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도 읍면 단위 지역관광 사업 시동 기자명 강재남 기자 승인 2017.06.02 10:07 신문 2918호(2017.06.06) 12면 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 기사스크랩하기 페이스북 공유 공유(으)로 기사보내기 트위터 공유 공유(으)로 기사보내기 카카오스토리 공유 공유(으)로 기사보내기 카카오톡 공유 공유(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 이 기사를 공유합니다 페이스북 공유 공유(으)로 기사보내기 트위터 공유 공유(으)로 기사보내기 카카오스토리 공유 공유(으)로 기사보내기 카카오톡 공유 공유(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 농어촌마을인 제주지역 읍면 단위 마을간 연계 지역관광 사업이 추진된다.제주특별자치도와 제주관광공사(사장 최갑열)는 마을의 지역 특성을 활용한 지역관광 활성화를 위해 ‘2017년도 읍·면 단위 마을간 연계사업 발굴 및 활성화 사업’을 진행한다고 밝혔다.제주관광공사는 오는 20일까지 읍면 단위 지역관광 사업 추진체를 모집하며, 최종 선정된 1개 읍면을 대상으로 지역 활동가인 가칭 ‘삼춘PD’를 각 마을별로 배치해 맞춤형 마을연계사업을 발굴하는 컨설팅과 사업화를 지원할 계획이다.읍면단위 지역관광 사업은 총 3개년에 걸쳐 사업화 단계, 안착화 단계, 자립화 단계의 모델로 연차별 성과평가에 따라 지원된다.제주=강재남 기자 kangjn@agrinet.co.kr 강재남 기자 kangjn@agrinet.co.kr 기자 프로필 보기 저작권자 © 한국농어민신문 무단전재 및 재배포 금지 당신만 안 본 뉴스 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 자본금 1000만원 들여 7200배 수익…‘해상풍력 잭팟’ 사실이었다 ‘9.25 쌀 대책’에 산지 가격 상승…벼 수매가 기대심리도 커진다 잇단 ASF, 발생유형 달라…총체적 방역 점검 목소리 산림청, 임업인 지원 예산 아랫돌 빼서 윗돌 괴기? 마늘 2023년산 재배면적 늘고, 양파는 감소 전망 “시장격리 의무화 땐 쌀 공급 과잉 심화” 농경연 보고서 논란 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 [2022 국감] “후쿠시마 원전 오염수 방류, 국제해양법재판소 제소해야” 후쿠시마 원전 오염수 동향보고, 정부 ‘선택적 공개’했다 자본금 1000만원 들여 7200배 수익…‘해상풍력 잭팟’ 사실이었다 2억 들어간 풍황계측 데이터, 웃돈 10억 붙여 판매 천하제일사료 ‘원샷’ㅣ농가와 20년 동행…생산성 향상 ‘일등공신’ “돌봄농업 실천 위해선 지역 내 촘촘한 연결망 구축 필수” 전국 인기뉴스 전체 인기뉴스 1 가격 높은 ‘감홍’ 사과 인기…묘목 품귀현상도 2 ‘괴산세계유기농산업엑스포’ 7년 만에 막 올랐다 3 여주 벼 수매가 동결, 이천은 5000원 인하 4 가을은 축제의 계절…전북 곳곳 북적북적 5 “쌀값 보장하고, CPTPP 가입 추진 철회를” 1 자본금 1000만원 들여 7200배 수익…‘해상풍력 잭팟’ 사실이었다 2 ‘9.25 쌀 대책’에 산지 가격 상승…벼 수매가 기대심리도 커진다 3 마늘 2023년산 재배면적 늘고, 양파는 감소 전망 4 “시장격리 의무화 땐 쌀 공급 과잉 심화” 농경연 보고서 논란 5 출하량 폭발 샤인머스켓, 2만원대 평균가격 무너졌다 사진뉴스 전국은 가을꽃 축제 한창 떨어지는 쌀값, 쌓이는 벼…농민은 한숨만 다가오는 가을…철원평야 수놓은 황금빛 물결 ‘쌀가루’로 뽐내는 베이킹 실력 하단영역 매체정보 대표전화 : 02-3434-9000 팩스 : 02-3434-9077 홈페이지 관련 불편·건의사항 : webmaster@agrinet.co.kr 서울시 송파구 중대로9길 60 (인터넷광고 : 02-3434-9023 / 신문광고 : 02-3434-9011 / 구독문의 : 02-3434-9004) 신문등록번호 : 서울 아 03463 등록일 : 2014-12-05 발행일 : 2014-12-05 발행·편집인 : 이학구 청소년보호책임자 : 이학구 Copyright © 2022 한국농어민신문. All rights reserved. mail to webmaster@agrinet.co.kr 하단메뉴 매체소개 기자소개 구독신청 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 위로 전체메뉴 전체기사 농정 전체 정책 국회ㆍ정당 농민단체 협동조합 임업 유통 전체 유통정책 유통현장 유통정보 업계소식 식품 전체 식품정책 식품산업 식품기술 인삼ㆍ특용작물 축산 전체 정책·유통 한우 낙농 돼지 닭ㆍ오리 특수가축 사료ㆍ약품ㆍ기자재 업계소식 농산 전체 농산업정책 비료ㆍ농약 농기계 농자재 영농기술 종자 친환경 전체 정책 생산ㆍ유통 친환경농자재 수출 전체 수출정책 수출현장 해외시장정보 전국 전체 농촌관광 경기 강원 충북 충남 전북 전남 경북 경남 제주 전국 수산 전체 종합 정책 수협 연근해ㆍ양식 유통ㆍ가공 렌즈 속 농어민 여성 전체 정책 기관ㆍ단체 다문화 여성현장 농촌女담 사람들 기획 오피니언 전체 농업마당 사설 기자수첩 기고ㆍ독자투고 이상길의 시선 오피니언 기고 정문기 칼럼 농훈칼럼 농어민만평 농촌 2030, 그들이 사는 법 문광운의 화풍정(火風鼎) 윤병선 칼럼 책 속의 한 줄 지역사회 의료이야기 테마 전체 농촌&amp;도시 귀농&amp;귀촌 교육&amp;문화 농업경영인 로컬푸드 건강&amp;생활 사진뉴스 전체 #렌즈 속 농어민 농어민TV 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 제14차 제주관광포럼 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회 제14차 제주관광포럼 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 제14차 제주관광포럼 개최 정용기 기자 승인 2017.06.08 15:48 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=정용기 기자] 제주특별자치도관광협회(회장 김영진)는 8일 라마다프라자제주에서 ’제14차 제주관광포럼’을 열고 제주관광의 질적 성장을 위한 체질개선 방안을 모색했다.정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -437,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +666,227 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
